--- a/Folders/Advanced Databases/PracticaETL1/ProductIdCost.xlsx
+++ b/Folders/Advanced Databases/PracticaETL1/ProductIdCost.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1492"/>
+  <dimension ref="A1:C1989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="K4" sqref="K4"/>
@@ -25786,6 +25786,8455 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="1493">
+      <c r="A1493" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1493" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C1493" s="0" t="inlineStr">
+        <is>
+          <t>954.9925</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1494">
+      <c r="A1494" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B1494" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1494" s="0" t="inlineStr">
+        <is>
+          <t>628.7400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1495">
+      <c r="A1495" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B1495" s="0" t="inlineStr">
+        <is>
+          <t>537800</t>
+        </is>
+      </c>
+      <c r="C1495" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1496">
+      <c r="A1496" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B1496" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1496" s="0" t="inlineStr">
+        <is>
+          <t>1026.4590</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1497">
+      <c r="A1497" s="0" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B1497" s="0" t="inlineStr">
+        <is>
+          <t>142314</t>
+        </is>
+      </c>
+      <c r="C1497" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1498">
+      <c r="A1498" s="0" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B1498" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C1498" s="0" t="inlineStr">
+        <is>
+          <t>123215.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1499">
+      <c r="A1499" s="0" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="B1499" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C1499" s="0" t="inlineStr">
+        <is>
+          <t>151905.6000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1500">
+      <c r="A1500" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="B1500" s="0" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="C1500" s="0" t="inlineStr">
+        <is>
+          <t>309158.8500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1501">
+      <c r="A1501" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B1501" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C1501" s="0" t="inlineStr">
+        <is>
+          <t>2279.6865</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1502">
+      <c r="A1502" s="0" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B1502" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C1502" s="0" t="inlineStr">
+        <is>
+          <t>2042.4915</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1503">
+      <c r="A1503" s="0" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B1503" s="0" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="C1503" s="0" t="inlineStr">
+        <is>
+          <t>25669.9800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1504">
+      <c r="A1504" s="0" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B1504" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1504" s="0" t="inlineStr">
+        <is>
+          <t>904.7430</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1505">
+      <c r="A1505" s="0" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="B1505" s="0" t="inlineStr">
+        <is>
+          <t>141046</t>
+        </is>
+      </c>
+      <c r="C1505" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1506">
+      <c r="A1506" s="0" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="B1506" s="0" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="C1506" s="0" t="inlineStr">
+        <is>
+          <t>1312.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1507">
+      <c r="A1507" s="0" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B1507" s="0" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="C1507" s="0" t="inlineStr">
+        <is>
+          <t>1312.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1508">
+      <c r="A1508" s="0" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="B1508" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C1508" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1509">
+      <c r="A1509" s="0" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B1509" s="0" t="inlineStr">
+        <is>
+          <t>37682</t>
+        </is>
+      </c>
+      <c r="C1509" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1510">
+      <c r="A1510" s="0" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B1510" s="0" t="inlineStr">
+        <is>
+          <t>69642</t>
+        </is>
+      </c>
+      <c r="C1510" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1511">
+      <c r="A1511" s="0" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B1511" s="0" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="C1511" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1512">
+      <c r="A1512" s="0" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B1512" s="0" t="inlineStr">
+        <is>
+          <t>142314</t>
+        </is>
+      </c>
+      <c r="C1512" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1513">
+      <c r="A1513" s="0" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B1513" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C1513" s="0" t="inlineStr">
+        <is>
+          <t>29741.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1514">
+      <c r="A1514" s="0" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B1514" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C1514" s="0" t="inlineStr">
+        <is>
+          <t>940.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1515">
+      <c r="A1515" s="0" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B1515" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C1515" s="0" t="inlineStr">
+        <is>
+          <t>896.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1516">
+      <c r="A1516" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B1516" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C1516" s="0" t="inlineStr">
+        <is>
+          <t>986.4540</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1517">
+      <c r="A1517" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="B1517" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1517" s="0" t="inlineStr">
+        <is>
+          <t>760.2840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1518">
+      <c r="A1518" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="B1518" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1518" s="0" t="inlineStr">
+        <is>
+          <t>722.4840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1519">
+      <c r="A1519" s="0" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B1519" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1519" s="0" t="inlineStr">
+        <is>
+          <t>675.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1520">
+      <c r="A1520" s="0" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B1520" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1520" s="0" t="inlineStr">
+        <is>
+          <t>611.5725</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1521">
+      <c r="A1521" s="0" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B1521" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1521" s="0" t="inlineStr">
+        <is>
+          <t>456.5610</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1522">
+      <c r="A1522" s="0" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B1522" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1522" s="0" t="inlineStr">
+        <is>
+          <t>507.8430</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1523">
+      <c r="A1523" s="0" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="B1523" s="0" t="inlineStr">
+        <is>
+          <t>71157</t>
+        </is>
+      </c>
+      <c r="C1523" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1524">
+      <c r="A1524" s="0" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B1524" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C1524" s="0" t="inlineStr">
+        <is>
+          <t>29279.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1525">
+      <c r="A1525" s="0" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="B1525" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C1525" s="0" t="inlineStr">
+        <is>
+          <t>6237.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1526">
+      <c r="A1526" s="0" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B1526" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C1526" s="0" t="inlineStr">
+        <is>
+          <t>3003.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1527">
+      <c r="A1527" s="0" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B1527" s="0" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="C1527" s="0" t="inlineStr">
+        <is>
+          <t>2094.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1528">
+      <c r="A1528" s="0" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B1528" s="0" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="C1528" s="0" t="inlineStr">
+        <is>
+          <t>2488.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1529">
+      <c r="A1529" s="0" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B1529" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C1529" s="0" t="inlineStr">
+        <is>
+          <t>2094.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1530">
+      <c r="A1530" s="0" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B1530" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1530" s="0" t="inlineStr">
+        <is>
+          <t>563.5395</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1531">
+      <c r="A1531" s="0" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B1531" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1531" s="0" t="inlineStr">
+        <is>
+          <t>546.0210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1532">
+      <c r="A1532" s="0" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B1532" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1532" s="0" t="inlineStr">
+        <is>
+          <t>448.2135</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1533">
+      <c r="A1533" s="0" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B1533" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1533" s="0" t="inlineStr">
+        <is>
+          <t>409.7520</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1534">
+      <c r="A1534" s="0" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B1534" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1534" s="0" t="inlineStr">
+        <is>
+          <t>390.8520</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1535">
+      <c r="A1535" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="B1535" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1535" s="0" t="inlineStr">
+        <is>
+          <t>429.3135</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1536">
+      <c r="A1536" s="0" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B1536" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1536" s="0" t="inlineStr">
+        <is>
+          <t>260.4105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1537">
+      <c r="A1537" s="0" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="B1537" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1537" s="0" t="inlineStr">
+        <is>
+          <t>247.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1538">
+      <c r="A1538" s="0" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="B1538" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1538" s="0" t="inlineStr">
+        <is>
+          <t>273.4515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1539">
+      <c r="A1539" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="B1539" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1539" s="0" t="inlineStr">
+        <is>
+          <t>247.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1540">
+      <c r="A1540" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="B1540" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1540" s="0" t="inlineStr">
+        <is>
+          <t>235.2105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1541">
+      <c r="A1541" s="0" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B1541" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1541" s="0" t="inlineStr">
+        <is>
+          <t>260.8515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1542">
+      <c r="A1542" s="0" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B1542" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1542" s="0" t="inlineStr">
+        <is>
+          <t>235.2105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1543">
+      <c r="A1543" s="0" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="B1543" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1543" s="0" t="inlineStr">
+        <is>
+          <t>222.6105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1544">
+      <c r="A1544" s="0" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="B1544" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1544" s="0" t="inlineStr">
+        <is>
+          <t>248.2515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1545">
+      <c r="A1545" s="0" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B1545" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1545" s="0" t="inlineStr">
+        <is>
+          <t>222.6105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1546">
+      <c r="A1546" s="0" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B1546" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1546" s="0" t="inlineStr">
+        <is>
+          <t>649.2780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1547">
+      <c r="A1547" s="0" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B1547" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1547" s="0" t="inlineStr">
+        <is>
+          <t>649.4985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1548">
+      <c r="A1548" s="0" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B1548" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1548" s="0" t="inlineStr">
+        <is>
+          <t>506.8665</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1549">
+      <c r="A1549" s="0" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B1549" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1549" s="0" t="inlineStr">
+        <is>
+          <t>494.2665</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1550">
+      <c r="A1550" s="0" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B1550" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1550" s="0" t="inlineStr">
+        <is>
+          <t>500.7870</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1551">
+      <c r="A1551" s="0" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B1551" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1551" s="0" t="inlineStr">
+        <is>
+          <t>506.7090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1552">
+      <c r="A1552" s="0" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B1552" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1552" s="0" t="inlineStr">
+        <is>
+          <t>494.1090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1553">
+      <c r="A1553" s="0" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B1553" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1553" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1554">
+      <c r="A1554" s="0" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B1554" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1554" s="0" t="inlineStr">
+        <is>
+          <t>266.3640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1555">
+      <c r="A1555" s="0" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B1555" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1555" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1556">
+      <c r="A1556" s="0" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B1556" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1556" s="0" t="inlineStr">
+        <is>
+          <t>253.1655</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1557">
+      <c r="A1557" s="0" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B1557" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1557" s="0" t="inlineStr">
+        <is>
+          <t>278.8065</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1558">
+      <c r="A1558" s="0" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B1558" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1558" s="0" t="inlineStr">
+        <is>
+          <t>253.3230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1559">
+      <c r="A1559" s="0" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B1559" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1559" s="0" t="inlineStr">
+        <is>
+          <t>259.8435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1560">
+      <c r="A1560" s="0" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B1560" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1560" s="0" t="inlineStr">
+        <is>
+          <t>259.8435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1561">
+      <c r="A1561" s="0" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B1561" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1561" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1562">
+      <c r="A1562" s="0" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B1562" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1562" s="0" t="inlineStr">
+        <is>
+          <t>247.2435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1563">
+      <c r="A1563" s="0" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B1563" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1563" s="0" t="inlineStr">
+        <is>
+          <t>247.2435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1564">
+      <c r="A1564" s="0" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="B1564" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1564" s="0" t="inlineStr">
+        <is>
+          <t>228.1230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1565">
+      <c r="A1565" s="0" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="B1565" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1565" s="0" t="inlineStr">
+        <is>
+          <t>259.6860</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1566">
+      <c r="A1566" s="0" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B1566" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1566" s="0" t="inlineStr">
+        <is>
+          <t>259.6860</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1567">
+      <c r="A1567" s="0" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B1567" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1567" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1568">
+      <c r="A1568" s="0" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B1568" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1568" s="0" t="inlineStr">
+        <is>
+          <t>266.3640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1569">
+      <c r="A1569" s="0" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="B1569" s="0" t="inlineStr">
+        <is>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="C1569" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1570">
+      <c r="A1570" s="0" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B1570" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C1570" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1571">
+      <c r="A1571" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B1571" s="0" t="inlineStr">
+        <is>
+          <t>40556</t>
+        </is>
+      </c>
+      <c r="C1571" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1572">
+      <c r="A1572" s="0" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B1572" s="0" t="inlineStr">
+        <is>
+          <t>71962</t>
+        </is>
+      </c>
+      <c r="C1572" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1573">
+      <c r="A1573" s="0" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B1573" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1573" s="0" t="inlineStr">
+        <is>
+          <t>712.0575</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1574">
+      <c r="A1574" s="0" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B1574" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1574" s="0" t="inlineStr">
+        <is>
+          <t>693.3780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1575">
+      <c r="A1575" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B1575" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1575" s="0" t="inlineStr">
+        <is>
+          <t>693.5985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1576">
+      <c r="A1576" s="0" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B1576" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1576" s="0" t="inlineStr">
+        <is>
+          <t>687.2985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1577">
+      <c r="A1577" s="0" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B1577" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1577" s="0" t="inlineStr">
+        <is>
+          <t>661.8780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1578">
+      <c r="A1578" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B1578" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1578" s="0" t="inlineStr">
+        <is>
+          <t>662.0985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1579">
+      <c r="A1579" s="0" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B1579" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1579" s="0" t="inlineStr">
+        <is>
+          <t>383.3550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1580">
+      <c r="A1580" s="0" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B1580" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C1580" s="0" t="inlineStr">
+        <is>
+          <t>377.0550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1581">
+      <c r="A1581" s="0" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B1581" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1581" s="0" t="inlineStr">
+        <is>
+          <t>234.4230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1582">
+      <c r="A1582" s="0" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B1582" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1582" s="0" t="inlineStr">
+        <is>
+          <t>240.9435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1583">
+      <c r="A1583" s="0" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B1583" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1583" s="0" t="inlineStr">
+        <is>
+          <t>240.9435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1584">
+      <c r="A1584" s="0" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B1584" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1584" s="0" t="inlineStr">
+        <is>
+          <t>259.9380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1585">
+      <c r="A1585" s="0" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B1585" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1585" s="0" t="inlineStr">
+        <is>
+          <t>266.4585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1586">
+      <c r="A1586" s="0" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B1586" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1586" s="0" t="inlineStr">
+        <is>
+          <t>266.4585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1587">
+      <c r="A1587" s="0" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B1587" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1587" s="0" t="inlineStr">
+        <is>
+          <t>247.3380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1588">
+      <c r="A1588" s="0" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B1588" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1588" s="0" t="inlineStr">
+        <is>
+          <t>253.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1589">
+      <c r="A1589" s="0" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B1589" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1589" s="0" t="inlineStr">
+        <is>
+          <t>253.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1590">
+      <c r="A1590" s="0" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B1590" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1590" s="0" t="inlineStr">
+        <is>
+          <t>234.7380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1591">
+      <c r="A1591" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B1591" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1591" s="0" t="inlineStr">
+        <is>
+          <t>241.2585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1592">
+      <c r="A1592" s="0" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B1592" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1592" s="0" t="inlineStr">
+        <is>
+          <t>279.3735</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1593">
+      <c r="A1593" s="0" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B1593" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1593" s="0" t="inlineStr">
+        <is>
+          <t>856.8315</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1594">
+      <c r="A1594" s="0" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B1594" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1594" s="0" t="inlineStr">
+        <is>
+          <t>819.0315</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1595">
+      <c r="A1595" s="0" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B1595" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1595" s="0" t="inlineStr">
+        <is>
+          <t>746.8650</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1596">
+      <c r="A1596" s="0" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B1596" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1596" s="0" t="inlineStr">
+        <is>
+          <t>682.7625</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1597">
+      <c r="A1597" s="0" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B1597" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1597" s="0" t="inlineStr">
+        <is>
+          <t>520.8210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1598">
+      <c r="A1598" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B1598" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1598" s="0" t="inlineStr">
+        <is>
+          <t>572.1030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1599">
+      <c r="A1599" s="0" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B1599" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1599" s="0" t="inlineStr">
+        <is>
+          <t>520.8210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1600">
+      <c r="A1600" s="0" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B1600" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1600" s="0" t="inlineStr">
+        <is>
+          <t>495.6210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1601">
+      <c r="A1601" s="0" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B1601" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1601" s="0" t="inlineStr">
+        <is>
+          <t>546.9030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1602">
+      <c r="A1602" s="0" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B1602" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1602" s="0" t="inlineStr">
+        <is>
+          <t>495.6210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1603">
+      <c r="A1603" s="0" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B1603" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1603" s="0" t="inlineStr">
+        <is>
+          <t>470.4210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1604">
+      <c r="A1604" s="0" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B1604" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1604" s="0" t="inlineStr">
+        <is>
+          <t>521.7030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1605">
+      <c r="A1605" s="0" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B1605" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1605" s="0" t="inlineStr">
+        <is>
+          <t>470.4210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1606">
+      <c r="A1606" s="0" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B1606" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1606" s="0" t="inlineStr">
+        <is>
+          <t>445.2210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1607">
+      <c r="A1607" s="0" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B1607" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1607" s="0" t="inlineStr">
+        <is>
+          <t>496.5030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1608">
+      <c r="A1608" s="0" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B1608" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1608" s="0" t="inlineStr">
+        <is>
+          <t>445.2210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1609">
+      <c r="A1609" s="0" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B1609" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1609" s="0" t="inlineStr">
+        <is>
+          <t>266.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1610">
+      <c r="A1610" s="0" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B1610" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1610" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1611">
+      <c r="A1611" s="0" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B1611" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1611" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1612">
+      <c r="A1612" s="0" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B1612" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1612" s="0" t="inlineStr">
+        <is>
+          <t>254.1105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1613">
+      <c r="A1613" s="0" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="B1613" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1613" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1614">
+      <c r="A1614" s="0" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B1614" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1614" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1615">
+      <c r="A1615" s="0" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B1615" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1615" s="0" t="inlineStr">
+        <is>
+          <t>241.5105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1616">
+      <c r="A1616" s="0" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B1616" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1616" s="0" t="inlineStr">
+        <is>
+          <t>248.0310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1617">
+      <c r="A1617" s="0" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B1617" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1617" s="0" t="inlineStr">
+        <is>
+          <t>248.0310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1618">
+      <c r="A1618" s="0" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B1618" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1618" s="0" t="inlineStr">
+        <is>
+          <t>267.1830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1619">
+      <c r="A1619" s="0" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B1619" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1619" s="0" t="inlineStr">
+        <is>
+          <t>254.5830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1620">
+      <c r="A1620" s="0" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B1620" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1620" s="0" t="inlineStr">
+        <is>
+          <t>280.2240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1621">
+      <c r="A1621" s="0" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B1621" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1621" s="0" t="inlineStr">
+        <is>
+          <t>254.5830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1622">
+      <c r="A1622" s="0" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B1622" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1622" s="0" t="inlineStr">
+        <is>
+          <t>241.9830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1623">
+      <c r="A1623" s="0" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B1623" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1623" s="0" t="inlineStr">
+        <is>
+          <t>267.6240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1624">
+      <c r="A1624" s="0" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B1624" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1624" s="0" t="inlineStr">
+        <is>
+          <t>241.9830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1625">
+      <c r="A1625" s="0" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B1625" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1625" s="0" t="inlineStr">
+        <is>
+          <t>266.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1626">
+      <c r="A1626" s="0" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B1626" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1626" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1627">
+      <c r="A1627" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B1627" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1627" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1628">
+      <c r="A1628" s="0" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B1628" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1628" s="0" t="inlineStr">
+        <is>
+          <t>254.1105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1629">
+      <c r="A1629" s="0" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B1629" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1629" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1630">
+      <c r="A1630" s="0" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B1630" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1630" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1631">
+      <c r="A1631" s="0" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B1631" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C1631" s="0" t="inlineStr">
+        <is>
+          <t>241.5105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1632">
+      <c r="A1632" s="0" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B1632" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1632" s="0" t="inlineStr">
+        <is>
+          <t>124.3620</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1633">
+      <c r="A1633" s="0" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B1633" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1633" s="0" t="inlineStr">
+        <is>
+          <t>715.2075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1634">
+      <c r="A1634" s="0" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B1634" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1634" s="0" t="inlineStr">
+        <is>
+          <t>142.5690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1635">
+      <c r="A1635" s="0" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B1635" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1635" s="0" t="inlineStr">
+        <is>
+          <t>136.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1636">
+      <c r="A1636" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B1636" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1636" s="0" t="inlineStr">
+        <is>
+          <t>149.0895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1637">
+      <c r="A1637" s="0" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B1637" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1637" s="0" t="inlineStr">
+        <is>
+          <t>136.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1638">
+      <c r="A1638" s="0" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B1638" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1638" s="0" t="inlineStr">
+        <is>
+          <t>129.9690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1639">
+      <c r="A1639" s="0" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B1639" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1639" s="0" t="inlineStr">
+        <is>
+          <t>142.7895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1640">
+      <c r="A1640" s="0" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B1640" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1640" s="0" t="inlineStr">
+        <is>
+          <t>129.9690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1641">
+      <c r="A1641" s="0" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B1641" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1641" s="0" t="inlineStr">
+        <is>
+          <t>123.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1642">
+      <c r="A1642" s="0" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B1642" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1642" s="0" t="inlineStr">
+        <is>
+          <t>136.4895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1643">
+      <c r="A1643" s="0" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B1643" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1643" s="0" t="inlineStr">
+        <is>
+          <t>123.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1644">
+      <c r="A1644" s="0" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B1644" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1644" s="0" t="inlineStr">
+        <is>
+          <t>117.3690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1645">
+      <c r="A1645" s="0" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B1645" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1645" s="0" t="inlineStr">
+        <is>
+          <t>130.1895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1646">
+      <c r="A1646" s="0" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B1646" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C1646" s="0" t="inlineStr">
+        <is>
+          <t>117.3690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1647">
+      <c r="A1647" s="0" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B1647" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C1647" s="0" t="inlineStr">
+        <is>
+          <t>17475.1500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1648">
+      <c r="A1648" s="0" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B1648" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C1648" s="0" t="inlineStr">
+        <is>
+          <t>12832.0500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1649">
+      <c r="A1649" s="0" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B1649" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C1649" s="0" t="inlineStr">
+        <is>
+          <t>12196.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1650">
+      <c r="A1650" s="0" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B1650" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C1650" s="0" t="inlineStr">
+        <is>
+          <t>17475.1500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1651">
+      <c r="A1651" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B1651" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1651" s="0" t="inlineStr">
+        <is>
+          <t>6416.0250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1652">
+      <c r="A1652" s="0" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B1652" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1652" s="0" t="inlineStr">
+        <is>
+          <t>6098.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1653">
+      <c r="A1653" s="0" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B1653" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1653" s="0" t="inlineStr">
+        <is>
+          <t>4816.3500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1654">
+      <c r="A1654" s="0" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B1654" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1654" s="0" t="inlineStr">
+        <is>
+          <t>5330.3250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1655">
+      <c r="A1655" s="0" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B1655" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1655" s="0" t="inlineStr">
+        <is>
+          <t>3782.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1656">
+      <c r="A1656" s="0" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B1656" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1656" s="0" t="inlineStr">
+        <is>
+          <t>4290.8250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1657">
+      <c r="A1657" s="0" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B1657" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1657" s="0" t="inlineStr">
+        <is>
+          <t>4816.3500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1658">
+      <c r="A1658" s="0" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B1658" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1658" s="0" t="inlineStr">
+        <is>
+          <t>3193.5750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1659">
+      <c r="A1659" s="0" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B1659" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1659" s="0" t="inlineStr">
+        <is>
+          <t>4874.1000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1660">
+      <c r="A1660" s="0" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B1660" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C1660" s="0" t="inlineStr">
+        <is>
+          <t>5757.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1661">
+      <c r="A1661" s="0" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B1661" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C1661" s="0" t="inlineStr">
+        <is>
+          <t>376.1100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1662">
+      <c r="A1662" s="0" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B1662" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C1662" s="0" t="inlineStr">
+        <is>
+          <t>598.8150</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1663">
+      <c r="A1663" s="0" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B1663" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="C1663" s="0" t="inlineStr">
+        <is>
+          <t>24242.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1664">
+      <c r="A1664" s="0" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B1664" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="C1664" s="0" t="inlineStr">
+        <is>
+          <t>27699.8400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1665">
+      <c r="A1665" s="0" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B1665" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C1665" s="0" t="inlineStr">
+        <is>
+          <t>21903.2100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1666">
+      <c r="A1666" s="0" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B1666" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C1666" s="0" t="inlineStr">
+        <is>
+          <t>26613.0900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1667">
+      <c r="A1667" s="0" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B1667" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C1667" s="0" t="inlineStr">
+        <is>
+          <t>20675.9700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1668">
+      <c r="A1668" s="0" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B1668" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1668" s="0" t="inlineStr">
+        <is>
+          <t>615.3840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1669">
+      <c r="A1669" s="0" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B1669" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1669" s="0" t="inlineStr">
+        <is>
+          <t>877.7160</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1670">
+      <c r="A1670" s="0" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B1670" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1670" s="0" t="inlineStr">
+        <is>
+          <t>663.2325</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1671">
+      <c r="A1671" s="0" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B1671" s="0" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="C1671" s="0" t="inlineStr">
+        <is>
+          <t>3311.2800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1672">
+      <c r="A1672" s="0" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B1672" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C1672" s="0" t="inlineStr">
+        <is>
+          <t>125288.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1673">
+      <c r="A1673" s="0" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B1673" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C1673" s="0" t="inlineStr">
+        <is>
+          <t>156560.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1674">
+      <c r="A1674" s="0" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B1674" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C1674" s="0" t="inlineStr">
+        <is>
+          <t>79810.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1675">
+      <c r="A1675" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B1675" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C1675" s="0" t="inlineStr">
+        <is>
+          <t>115136.1750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1676">
+      <c r="A1676" s="0" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B1676" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C1676" s="0" t="inlineStr">
+        <is>
+          <t>141037.0500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1677">
+      <c r="A1677" s="0" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B1677" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C1677" s="0" t="inlineStr">
+        <is>
+          <t>199329.9000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1678">
+      <c r="A1678" s="0" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B1678" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C1678" s="0" t="inlineStr">
+        <is>
+          <t>195558.8250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1679">
+      <c r="A1679" s="0" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B1679" s="0" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="C1679" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1680">
+      <c r="A1680" s="0" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B1680" s="0" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="C1680" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1681">
+      <c r="A1681" s="0" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B1681" s="0" t="inlineStr">
+        <is>
+          <t>13081</t>
+        </is>
+      </c>
+      <c r="C1681" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1682">
+      <c r="A1682" s="0" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B1682" s="0" t="inlineStr">
+        <is>
+          <t>18345</t>
+        </is>
+      </c>
+      <c r="C1682" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1683">
+      <c r="A1683" s="0" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B1683" s="0" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="C1683" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1684">
+      <c r="A1684" s="0" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B1684" s="0" t="inlineStr">
+        <is>
+          <t>8916</t>
+        </is>
+      </c>
+      <c r="C1684" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1685">
+      <c r="A1685" s="0" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B1685" s="0" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C1685" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1686">
+      <c r="A1686" s="0" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B1686" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="C1686" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1687">
+      <c r="A1687" s="0" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B1687" s="0" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="C1687" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1688">
+      <c r="A1688" s="0" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B1688" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C1688" s="0" t="inlineStr">
+        <is>
+          <t>63969.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1689">
+      <c r="A1689" s="0" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B1689" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C1689" s="0" t="inlineStr">
+        <is>
+          <t>82264.8750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1690">
+      <c r="A1690" s="0" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B1690" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C1690" s="0" t="inlineStr">
+        <is>
+          <t>6381.3750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1691">
+      <c r="A1691" s="0" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B1691" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C1691" s="0" t="inlineStr">
+        <is>
+          <t>10019.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1692">
+      <c r="A1692" s="0" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B1692" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C1692" s="0" t="inlineStr">
+        <is>
+          <t>18566.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1693">
+      <c r="A1693" s="0" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B1693" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1693" s="0" t="inlineStr">
+        <is>
+          <t>572.3550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1694">
+      <c r="A1694" s="0" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B1694" s="0" t="inlineStr">
+        <is>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="C1694" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1695">
+      <c r="A1695" s="0" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B1695" s="0" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="C1695" s="0" t="inlineStr">
+        <is>
+          <t>53083.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1696">
+      <c r="A1696" s="0" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B1696" s="0" t="inlineStr">
+        <is>
+          <t>71157</t>
+        </is>
+      </c>
+      <c r="C1696" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1697">
+      <c r="A1697" s="0" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B1697" s="0" t="inlineStr">
+        <is>
+          <t>282092</t>
+        </is>
+      </c>
+      <c r="C1697" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1698">
+      <c r="A1698" s="0" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B1698" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C1698" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1699">
+      <c r="A1699" s="0" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B1699" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C1699" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1700">
+      <c r="A1700" s="0" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B1700" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C1700" s="0" t="inlineStr">
+        <is>
+          <t>7669.2000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1701">
+      <c r="A1701" s="0" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="B1701" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C1701" s="0" t="inlineStr">
+        <is>
+          <t>29279.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1702">
+      <c r="A1702" s="0" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="B1702" s="0" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="C1702" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1703">
+      <c r="A1703" s="0" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="B1703" s="0" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="C1703" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1704">
+      <c r="A1704" s="0" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="B1704" s="0" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="C1704" s="0" t="inlineStr">
+        <is>
+          <t>58423.8005</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1705">
+      <c r="A1705" s="0" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="B1705" s="0" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="C1705" s="0" t="inlineStr">
+        <is>
+          <t>62203.5210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1706">
+      <c r="A1706" s="0" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="B1706" s="0" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="C1706" s="0" t="inlineStr">
+        <is>
+          <t>6835.7250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1707">
+      <c r="A1707" s="0" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="B1707" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C1707" s="0" t="inlineStr">
+        <is>
+          <t>555.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1708">
+      <c r="A1708" s="0" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="B1708" s="0" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="C1708" s="0" t="inlineStr">
+        <is>
+          <t>66674.1600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1709">
+      <c r="A1709" s="0" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="B1709" s="0" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="C1709" s="0" t="inlineStr">
+        <is>
+          <t>24355.9927</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1710">
+      <c r="A1710" s="0" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B1710" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C1710" s="0" t="inlineStr">
+        <is>
+          <t>1749.6500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1711">
+      <c r="A1711" s="0" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B1711" s="0" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
+      </c>
+      <c r="C1711" s="0" t="inlineStr">
+        <is>
+          <t>67193.9747</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1712">
+      <c r="A1712" s="0" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="B1712" s="0" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="C1712" s="0" t="inlineStr">
+        <is>
+          <t>127334.3609</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1713">
+      <c r="A1713" s="0" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B1713" s="0" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="C1713" s="0" t="inlineStr">
+        <is>
+          <t>60482.8222</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1714">
+      <c r="A1714" s="0" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="B1714" s="0" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="C1714" s="0" t="inlineStr">
+        <is>
+          <t>351523.5649</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1715">
+      <c r="A1715" s="0" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="B1715" s="0" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="C1715" s="0" t="inlineStr">
+        <is>
+          <t>348526.0822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1716">
+      <c r="A1716" s="0" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="B1716" s="0" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="C1716" s="0" t="inlineStr">
+        <is>
+          <t>82240.9768</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1717">
+      <c r="A1717" s="0" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="B1717" s="0" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="C1717" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1718">
+      <c r="A1718" s="0" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="B1718" s="0" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="C1718" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1719">
+      <c r="A1719" s="0" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="B1719" s="0" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C1719" s="0" t="inlineStr">
+        <is>
+          <t>164933.4780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1720">
+      <c r="A1720" s="0" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B1720" s="0" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="C1720" s="0" t="inlineStr">
+        <is>
+          <t>23904.1305</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1721">
+      <c r="A1721" s="0" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B1721" s="0" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="C1721" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1722">
+      <c r="A1722" s="0" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="B1722" s="0" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="C1722" s="0" t="inlineStr">
+        <is>
+          <t>240423.1477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1723">
+      <c r="A1723" s="0" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B1723" s="0" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="C1723" s="0" t="inlineStr">
+        <is>
+          <t>162338.9361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1724">
+      <c r="A1724" s="0" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B1724" s="0" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C1724" s="0" t="inlineStr">
+        <is>
+          <t>24795.4801</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1725">
+      <c r="A1725" s="0" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B1725" s="0" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="C1725" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1726">
+      <c r="A1726" s="0" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="B1726" s="0" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="C1726" s="0" t="inlineStr">
+        <is>
+          <t>241534.7475</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1727">
+      <c r="A1727" s="0" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="B1727" s="0" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="C1727" s="0" t="inlineStr">
+        <is>
+          <t>169008.5346</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1728">
+      <c r="A1728" s="0" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B1728" s="0" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="C1728" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1729">
+      <c r="A1729" s="0" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="B1729" s="0" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="C1729" s="0" t="inlineStr">
+        <is>
+          <t>110043.5500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1730">
+      <c r="A1730" s="0" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="B1730" s="0" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="C1730" s="0" t="inlineStr">
+        <is>
+          <t>39615.6780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1731">
+      <c r="A1731" s="0" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="B1731" s="0" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="C1731" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1732">
+      <c r="A1732" s="0" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="B1732" s="0" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="C1732" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1733">
+      <c r="A1733" s="0" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="B1733" s="0" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="C1733" s="0" t="inlineStr">
+        <is>
+          <t>44224.1391</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1734">
+      <c r="A1734" s="0" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="B1734" s="0" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="C1734" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1735">
+      <c r="A1735" s="0" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="B1735" s="0" t="inlineStr">
+        <is>
+          <t>4815</t>
+        </is>
+      </c>
+      <c r="C1735" s="0" t="inlineStr">
+        <is>
+          <t>264759.1897</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1736">
+      <c r="A1736" s="0" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="B1736" s="0" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="C1736" s="0" t="inlineStr">
+        <is>
+          <t>240959.1776</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1737">
+      <c r="A1737" s="0" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="B1737" s="0" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C1737" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1738">
+      <c r="A1738" s="0" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B1738" s="0" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C1738" s="0" t="inlineStr">
+        <is>
+          <t>174683.2900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1739">
+      <c r="A1739" s="0" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="B1739" s="0" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="C1739" s="0" t="inlineStr">
+        <is>
+          <t>399027.8177</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1740">
+      <c r="A1740" s="0" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B1740" s="0" t="inlineStr">
+        <is>
+          <t>3690</t>
+        </is>
+      </c>
+      <c r="C1740" s="0" t="inlineStr">
+        <is>
+          <t>712479.6564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1741">
+      <c r="A1741" s="0" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="B1741" s="0" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="C1741" s="0" t="inlineStr">
+        <is>
+          <t>16977.9680</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1742">
+      <c r="A1742" s="0" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B1742" s="0" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="C1742" s="0" t="inlineStr">
+        <is>
+          <t>130830.2240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1743">
+      <c r="A1743" s="0" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="B1743" s="0" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="C1743" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1744">
+      <c r="A1744" s="0" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B1744" s="0" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="C1744" s="0" t="inlineStr">
+        <is>
+          <t>403152.0325</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1745">
+      <c r="A1745" s="0" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="B1745" s="0" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="C1745" s="0" t="inlineStr">
+        <is>
+          <t>747684.9884</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1746">
+      <c r="A1746" s="0" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B1746" s="0" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C1746" s="0" t="inlineStr">
+        <is>
+          <t>1882456.2816</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1747">
+      <c r="A1747" s="0" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B1747" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="C1747" s="0" t="inlineStr">
+        <is>
+          <t>1407405.1564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1748">
+      <c r="A1748" s="0" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B1748" s="0" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="C1748" s="0" t="inlineStr">
+        <is>
+          <t>1607788.2764</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1749">
+      <c r="A1749" s="0" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B1749" s="0" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="C1749" s="0" t="inlineStr">
+        <is>
+          <t>1482548.8264</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1750">
+      <c r="A1750" s="0" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="B1750" s="0" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="C1750" s="0" t="inlineStr">
+        <is>
+          <t>2006264.4236</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1751">
+      <c r="A1751" s="0" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="B1751" s="0" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="C1751" s="0" t="inlineStr">
+        <is>
+          <t>610956.1296</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1752">
+      <c r="A1752" s="0" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="B1752" s="0" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C1752" s="0" t="inlineStr">
+        <is>
+          <t>367413.4800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1753">
+      <c r="A1753" s="0" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="B1753" s="0" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="C1753" s="0" t="inlineStr">
+        <is>
+          <t>363214.4688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1754">
+      <c r="A1754" s="0" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="B1754" s="0" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="C1754" s="0" t="inlineStr">
+        <is>
+          <t>163761.4368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1755">
+      <c r="A1755" s="0" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="B1755" s="0" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="C1755" s="0" t="inlineStr">
+        <is>
+          <t>745324.4880</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1756">
+      <c r="A1756" s="0" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B1756" s="0" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="C1756" s="0" t="inlineStr">
+        <is>
+          <t>353545.7093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1757">
+      <c r="A1757" s="0" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="B1757" s="0" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="C1757" s="0" t="inlineStr">
+        <is>
+          <t>1221456.5598</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1758">
+      <c r="A1758" s="0" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B1758" s="0" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="C1758" s="0" t="inlineStr">
+        <is>
+          <t>1046425.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1759">
+      <c r="A1759" s="0" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B1759" s="0" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="C1759" s="0" t="inlineStr">
+        <is>
+          <t>1237544.7671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1760">
+      <c r="A1760" s="0" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="B1760" s="0" t="inlineStr">
+        <is>
+          <t>3772</t>
+        </is>
+      </c>
+      <c r="C1760" s="0" t="inlineStr">
+        <is>
+          <t>1046463.8895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1761">
+      <c r="A1761" s="0" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B1761" s="0" t="inlineStr">
+        <is>
+          <t>2224</t>
+        </is>
+      </c>
+      <c r="C1761" s="0" t="inlineStr">
+        <is>
+          <t>619139.2706</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1762">
+      <c r="A1762" s="0" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="B1762" s="0" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="C1762" s="0" t="inlineStr">
+        <is>
+          <t>1033853.2764</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1763">
+      <c r="A1763" s="0" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="B1763" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C1763" s="0" t="inlineStr">
+        <is>
+          <t>615172.8669</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1764">
+      <c r="A1764" s="0" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="B1764" s="0" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="C1764" s="0" t="inlineStr">
+        <is>
+          <t>364891.2341</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1765">
+      <c r="A1765" s="0" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="B1765" s="0" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="C1765" s="0" t="inlineStr">
+        <is>
+          <t>601936.9804</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1766">
+      <c r="A1766" s="0" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="B1766" s="0" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="C1766" s="0" t="inlineStr">
+        <is>
+          <t>363348.7438</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1767">
+      <c r="A1767" s="0" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="B1767" s="0" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="C1767" s="0" t="inlineStr">
+        <is>
+          <t>1251684.4478</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1768">
+      <c r="A1768" s="0" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B1768" s="0" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="C1768" s="0" t="inlineStr">
+        <is>
+          <t>1626827.2152</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1769">
+      <c r="A1769" s="0" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B1769" s="0" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="C1769" s="0" t="inlineStr">
+        <is>
+          <t>1491643.6128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1770">
+      <c r="A1770" s="0" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B1770" s="0" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="C1770" s="0" t="inlineStr">
+        <is>
+          <t>1517891.5356</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1771">
+      <c r="A1771" s="0" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B1771" s="0" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="C1771" s="0" t="inlineStr">
+        <is>
+          <t>1270508.2632</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1772">
+      <c r="A1772" s="0" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B1772" s="0" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="C1772" s="0" t="inlineStr">
+        <is>
+          <t>1703559.9524</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1773">
+      <c r="A1773" s="0" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B1773" s="0" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="C1773" s="0" t="inlineStr">
+        <is>
+          <t>1583140.3092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1774">
+      <c r="A1774" s="0" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B1774" s="0" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="C1774" s="0" t="inlineStr">
+        <is>
+          <t>1704234.9504</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1775">
+      <c r="A1775" s="0" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B1775" s="0" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="C1775" s="0" t="inlineStr">
+        <is>
+          <t>1550740.4052</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1776">
+      <c r="A1776" s="0" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="B1776" s="0" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+      <c r="C1776" s="0" t="inlineStr">
+        <is>
+          <t>2135265.7197</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1777">
+      <c r="A1777" s="0" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="B1777" s="0" t="inlineStr">
+        <is>
+          <t>2587</t>
+        </is>
+      </c>
+      <c r="C1777" s="0" t="inlineStr">
+        <is>
+          <t>2084530.8528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1778">
+      <c r="A1778" s="0" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B1778" s="0" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="C1778" s="0" t="inlineStr">
+        <is>
+          <t>2058033.2529</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1779">
+      <c r="A1779" s="0" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="B1779" s="0" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="C1779" s="0" t="inlineStr">
+        <is>
+          <t>2559917.0690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1780">
+      <c r="A1780" s="0" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="B1780" s="0" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="C1780" s="0" t="inlineStr">
+        <is>
+          <t>2373331.1044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1781">
+      <c r="A1781" s="0" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B1781" s="0" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="C1781" s="0" t="inlineStr">
+        <is>
+          <t>1856492.8040</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1782">
+      <c r="A1782" s="0" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B1782" s="0" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="C1782" s="0" t="inlineStr">
+        <is>
+          <t>531873.4752</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1783">
+      <c r="A1783" s="0" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="B1783" s="0" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="C1783" s="0" t="inlineStr">
+        <is>
+          <t>603412.0128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1784">
+      <c r="A1784" s="0" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="B1784" s="0" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="C1784" s="0" t="inlineStr">
+        <is>
+          <t>580861.8216</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1785">
+      <c r="A1785" s="0" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B1785" s="0" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="C1785" s="0" t="inlineStr">
+        <is>
+          <t>575418.6720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1786">
+      <c r="A1786" s="0" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B1786" s="0" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="C1786" s="0" t="inlineStr">
+        <is>
+          <t>1673010.6120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1787">
+      <c r="A1787" s="0" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B1787" s="0" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="C1787" s="0" t="inlineStr">
+        <is>
+          <t>1534032.8640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1788">
+      <c r="A1788" s="0" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B1788" s="0" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="C1788" s="0" t="inlineStr">
+        <is>
+          <t>1215126.8220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1789">
+      <c r="A1789" s="0" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B1789" s="0" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="C1789" s="0" t="inlineStr">
+        <is>
+          <t>1074955.3230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1790">
+      <c r="A1790" s="0" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="B1790" s="0" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="C1790" s="0" t="inlineStr">
+        <is>
+          <t>1765554.2385</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1791">
+      <c r="A1791" s="0" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="B1791" s="0" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="C1791" s="0" t="inlineStr">
+        <is>
+          <t>1606973.8425</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1792">
+      <c r="A1792" s="0" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="B1792" s="0" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+      <c r="C1792" s="0" t="inlineStr">
+        <is>
+          <t>1400961.0420</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1793">
+      <c r="A1793" s="0" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="B1793" s="0" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="C1793" s="0" t="inlineStr">
+        <is>
+          <t>995211.3600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1794">
+      <c r="A1794" s="0" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="B1794" s="0" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C1794" s="0" t="inlineStr">
+        <is>
+          <t>754826.0920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1795">
+      <c r="A1795" s="0" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="B1795" s="0" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="C1795" s="0" t="inlineStr">
+        <is>
+          <t>660776.9635</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1796">
+      <c r="A1796" s="0" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="B1796" s="0" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="C1796" s="0" t="inlineStr">
+        <is>
+          <t>535522.1885</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1797">
+      <c r="A1797" s="0" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="B1797" s="0" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="C1797" s="0" t="inlineStr">
+        <is>
+          <t>392096.2671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1798">
+      <c r="A1798" s="0" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="B1798" s="0" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C1798" s="0" t="inlineStr">
+        <is>
+          <t>753628.7684</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1799">
+      <c r="A1799" s="0" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="B1799" s="0" t="inlineStr">
+        <is>
+          <t>27213</t>
+        </is>
+      </c>
+      <c r="C1799" s="0" t="inlineStr">
+        <is>
+          <t>20839.7320</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1800">
+      <c r="A1800" s="0" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="B1800" s="0" t="inlineStr">
+        <is>
+          <t>15473</t>
+        </is>
+      </c>
+      <c r="C1800" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1801">
+      <c r="A1801" s="0" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="B1801" s="0" t="inlineStr">
+        <is>
+          <t>29105</t>
+        </is>
+      </c>
+      <c r="C1801" s="0" t="inlineStr">
+        <is>
+          <t>75401.2344</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1802">
+      <c r="A1802" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="B1802" s="0" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="C1802" s="0" t="inlineStr">
+        <is>
+          <t>2404.2600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1803">
+      <c r="A1803" s="0" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="B1803" s="0" t="inlineStr">
+        <is>
+          <t>43893</t>
+        </is>
+      </c>
+      <c r="C1803" s="0" t="inlineStr">
+        <is>
+          <t>49882.7414</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1804">
+      <c r="A1804" s="0" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="B1804" s="0" t="inlineStr">
+        <is>
+          <t>9129</t>
+        </is>
+      </c>
+      <c r="C1804" s="0" t="inlineStr">
+        <is>
+          <t>23536.5510</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1805">
+      <c r="A1805" s="0" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="B1805" s="0" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="C1805" s="0" t="inlineStr">
+        <is>
+          <t>16473.8188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1806">
+      <c r="A1806" s="0" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="B1806" s="0" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="C1806" s="0" t="inlineStr">
+        <is>
+          <t>38926.8732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1807">
+      <c r="A1807" s="0" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="B1807" s="0" t="inlineStr">
+        <is>
+          <t>13753</t>
+        </is>
+      </c>
+      <c r="C1807" s="0" t="inlineStr">
+        <is>
+          <t>27800.2988</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1808">
+      <c r="A1808" s="0" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="B1808" s="0" t="inlineStr">
+        <is>
+          <t>18705</t>
+        </is>
+      </c>
+      <c r="C1808" s="0" t="inlineStr">
+        <is>
+          <t>5588.1535</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1809">
+      <c r="A1809" s="0" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="B1809" s="0" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="C1809" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1810">
+      <c r="A1810" s="0" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B1810" s="0" t="inlineStr">
+        <is>
+          <t>9748</t>
+        </is>
+      </c>
+      <c r="C1810" s="0" t="inlineStr">
+        <is>
+          <t>34386.2834</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1811">
+      <c r="A1811" s="0" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="B1811" s="0" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="C1811" s="0" t="inlineStr">
+        <is>
+          <t>132654.3536</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1812">
+      <c r="A1812" s="0" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="B1812" s="0" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="C1812" s="0" t="inlineStr">
+        <is>
+          <t>27734.9521</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1813">
+      <c r="A1813" s="0" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="B1813" s="0" t="inlineStr">
+        <is>
+          <t>11609</t>
+        </is>
+      </c>
+      <c r="C1813" s="0" t="inlineStr">
+        <is>
+          <t>41144.4810</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1814">
+      <c r="A1814" s="0" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="B1814" s="0" t="inlineStr">
+        <is>
+          <t>5395</t>
+        </is>
+      </c>
+      <c r="C1814" s="0" t="inlineStr">
+        <is>
+          <t>49319.3202</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1815">
+      <c r="A1815" s="0" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="B1815" s="0" t="inlineStr">
+        <is>
+          <t>18345</t>
+        </is>
+      </c>
+      <c r="C1815" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1816">
+      <c r="A1816" s="0" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="B1816" s="0" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="C1816" s="0" t="inlineStr">
+        <is>
+          <t>97784.2068</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1817">
+      <c r="A1817" s="0" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="B1817" s="0" t="inlineStr">
+        <is>
+          <t>10050</t>
+        </is>
+      </c>
+      <c r="C1817" s="0" t="inlineStr">
+        <is>
+          <t>138486.5748</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1818">
+      <c r="A1818" s="0" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B1818" s="0" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="C1818" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1819">
+      <c r="A1819" s="0" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="B1819" s="0" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="C1819" s="0" t="inlineStr">
+        <is>
+          <t>242936.1110</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1820">
+      <c r="A1820" s="0" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="B1820" s="0" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
+      <c r="C1820" s="0" t="inlineStr">
+        <is>
+          <t>22206.5046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1821">
+      <c r="A1821" s="0" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="B1821" s="0" t="inlineStr">
+        <is>
+          <t>12771</t>
+        </is>
+      </c>
+      <c r="C1821" s="0" t="inlineStr">
+        <is>
+          <t>147935.7495</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1822">
+      <c r="A1822" s="0" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="B1822" s="0" t="inlineStr">
+        <is>
+          <t>6651</t>
+        </is>
+      </c>
+      <c r="C1822" s="0" t="inlineStr">
+        <is>
+          <t>205818.2350</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1823">
+      <c r="A1823" s="0" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B1823" s="0" t="inlineStr">
+        <is>
+          <t>20079</t>
+        </is>
+      </c>
+      <c r="C1823" s="0" t="inlineStr">
+        <is>
+          <t>72219.4527</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1824">
+      <c r="A1824" s="0" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="B1824" s="0" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="C1824" s="0" t="inlineStr">
+        <is>
+          <t>13042.2336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1825">
+      <c r="A1825" s="0" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="B1825" s="0" t="inlineStr">
+        <is>
+          <t>9104</t>
+        </is>
+      </c>
+      <c r="C1825" s="0" t="inlineStr">
+        <is>
+          <t>24837.0936</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1826">
+      <c r="A1826" s="0" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="B1826" s="0" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="C1826" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1827">
+      <c r="A1827" s="0" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="B1827" s="0" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="C1827" s="0" t="inlineStr">
+        <is>
+          <t>17549.6032</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1828">
+      <c r="A1828" s="0" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B1828" s="0" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C1828" s="0" t="inlineStr">
+        <is>
+          <t>159753.0056</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1829">
+      <c r="A1829" s="0" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="B1829" s="0" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+      <c r="C1829" s="0" t="inlineStr">
+        <is>
+          <t>247242.9392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1830">
+      <c r="A1830" s="0" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="B1830" s="0" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="C1830" s="0" t="inlineStr">
+        <is>
+          <t>70868.0378</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1831">
+      <c r="A1831" s="0" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="B1831" s="0" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="C1831" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1832">
+      <c r="A1832" s="0" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="B1832" s="0" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="C1832" s="0" t="inlineStr">
+        <is>
+          <t>405560.4514</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1833">
+      <c r="A1833" s="0" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="B1833" s="0" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="C1833" s="0" t="inlineStr">
+        <is>
+          <t>239974.9393</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1834">
+      <c r="A1834" s="0" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="B1834" s="0" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
+      </c>
+      <c r="C1834" s="0" t="inlineStr">
+        <is>
+          <t>324630.3668</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1835">
+      <c r="A1835" s="0" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="B1835" s="0" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="C1835" s="0" t="inlineStr">
+        <is>
+          <t>87537.5268</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1836">
+      <c r="A1836" s="0" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="B1836" s="0" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="C1836" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1837">
+      <c r="A1837" s="0" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B1837" s="0" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C1837" s="0" t="inlineStr">
+        <is>
+          <t>22109.3145</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1838">
+      <c r="A1838" s="0" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B1838" s="0" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="C1838" s="0" t="inlineStr">
+        <is>
+          <t>16290.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1839">
+      <c r="A1839" s="0" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B1839" s="0" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="C1839" s="0" t="inlineStr">
+        <is>
+          <t>13553.2200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1840">
+      <c r="A1840" s="0" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="B1840" s="0" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="C1840" s="0" t="inlineStr">
+        <is>
+          <t>49677.7190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1841">
+      <c r="A1841" s="0" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B1841" s="0" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="C1841" s="0" t="inlineStr">
+        <is>
+          <t>17352.1075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1842">
+      <c r="A1842" s="0" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="B1842" s="0" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="C1842" s="0" t="inlineStr">
+        <is>
+          <t>100460.3535</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1843">
+      <c r="A1843" s="0" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="B1843" s="0" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="C1843" s="0" t="inlineStr">
+        <is>
+          <t>19204.9390</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1844">
+      <c r="A1844" s="0" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="B1844" s="0" t="inlineStr">
+        <is>
+          <t>2116</t>
+        </is>
+      </c>
+      <c r="C1844" s="0" t="inlineStr">
+        <is>
+          <t>103141.2460</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1845">
+      <c r="A1845" s="0" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="B1845" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="C1845" s="0" t="inlineStr">
+        <is>
+          <t>51123.3190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1846">
+      <c r="A1846" s="0" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="B1846" s="0" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="C1846" s="0" t="inlineStr">
+        <is>
+          <t>94057.5480</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1847">
+      <c r="A1847" s="0" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="B1847" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="C1847" s="0" t="inlineStr">
+        <is>
+          <t>37026.3855</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1848">
+      <c r="A1848" s="0" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="B1848" s="0" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="C1848" s="0" t="inlineStr">
+        <is>
+          <t>14330.3495</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1849">
+      <c r="A1849" s="0" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="B1849" s="0" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="C1849" s="0" t="inlineStr">
+        <is>
+          <t>24605.7682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1850">
+      <c r="A1850" s="0" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="B1850" s="0" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="C1850" s="0" t="inlineStr">
+        <is>
+          <t>7776.8144</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1851">
+      <c r="A1851" s="0" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="B1851" s="0" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="C1851" s="0" t="inlineStr">
+        <is>
+          <t>12173.8955</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1852">
+      <c r="A1852" s="0" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="B1852" s="0" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="C1852" s="0" t="inlineStr">
+        <is>
+          <t>54251.6195</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1853">
+      <c r="A1853" s="0" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="B1853" s="0" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="C1853" s="0" t="inlineStr">
+        <is>
+          <t>83093.6275</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1854">
+      <c r="A1854" s="0" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="B1854" s="0" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="C1854" s="0" t="inlineStr">
+        <is>
+          <t>35252.0250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1855">
+      <c r="A1855" s="0" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="B1855" s="0" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="C1855" s="0" t="inlineStr">
+        <is>
+          <t>22710.7750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1856">
+      <c r="A1856" s="0" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="B1856" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1856" s="0" t="inlineStr">
+        <is>
+          <t>1009.6500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1857">
+      <c r="A1857" s="0" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="B1857" s="0" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="C1857" s="0" t="inlineStr">
+        <is>
+          <t>29413.2975</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1858">
+      <c r="A1858" s="0" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="B1858" s="0" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="C1858" s="0" t="inlineStr">
+        <is>
+          <t>8209.8270</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1859">
+      <c r="A1859" s="0" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="B1859" s="0" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="C1859" s="0" t="inlineStr">
+        <is>
+          <t>27740.5365</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1860">
+      <c r="A1860" s="0" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="B1860" s="0" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="C1860" s="0" t="inlineStr">
+        <is>
+          <t>3809.3660</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1861">
+      <c r="A1861" s="0" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B1861" s="0" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C1861" s="0" t="inlineStr">
+        <is>
+          <t>1928.0700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1862">
+      <c r="A1862" s="0" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B1862" s="0" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="C1862" s="0" t="inlineStr">
+        <is>
+          <t>1609.2100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1863">
+      <c r="A1863" s="0" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B1863" s="0" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="C1863" s="0" t="inlineStr">
+        <is>
+          <t>952.6400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1864">
+      <c r="A1864" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B1864" s="0" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="C1864" s="0" t="inlineStr">
+        <is>
+          <t>1922.5115</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1865">
+      <c r="A1865" s="0" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="B1865" s="0" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="C1865" s="0" t="inlineStr">
+        <is>
+          <t>3143.8030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1866">
+      <c r="A1866" s="0" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="B1866" s="0" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="C1866" s="0" t="inlineStr">
+        <is>
+          <t>46128.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1867">
+      <c r="A1867" s="0" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="B1867" s="0" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="C1867" s="0" t="inlineStr">
+        <is>
+          <t>3381.9300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1868">
+      <c r="A1868" s="0" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="B1868" s="0" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="C1868" s="0" t="inlineStr">
+        <is>
+          <t>4461.9400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1869">
+      <c r="A1869" s="0" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="B1869" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C1869" s="0" t="inlineStr">
+        <is>
+          <t>3975.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1870">
+      <c r="A1870" s="0" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B1870" s="0" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="C1870" s="0" t="inlineStr">
+        <is>
+          <t>19851.3900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1871">
+      <c r="A1871" s="0" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="B1871" s="0" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="C1871" s="0" t="inlineStr">
+        <is>
+          <t>16207.7980</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1872">
+      <c r="A1872" s="0" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="B1872" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C1872" s="0" t="inlineStr">
+        <is>
+          <t>2267.5800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1873">
+      <c r="A1873" s="0" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="B1873" s="0" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="C1873" s="0" t="inlineStr">
+        <is>
+          <t>21234.2670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1874">
+      <c r="A1874" s="0" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B1874" s="0" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="C1874" s="0" t="inlineStr">
+        <is>
+          <t>28703.7835</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1875">
+      <c r="A1875" s="0" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B1875" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="C1875" s="0" t="inlineStr">
+        <is>
+          <t>58688.5786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1876">
+      <c r="A1876" s="0" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="B1876" s="0" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="C1876" s="0" t="inlineStr">
+        <is>
+          <t>19985.1948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1877">
+      <c r="A1877" s="0" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="B1877" s="0" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C1877" s="0" t="inlineStr">
+        <is>
+          <t>26001.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1878">
+      <c r="A1878" s="0" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="B1878" s="0" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C1878" s="0" t="inlineStr">
+        <is>
+          <t>21543.9086</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1879">
+      <c r="A1879" s="0" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="B1879" s="0" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C1879" s="0" t="inlineStr">
+        <is>
+          <t>86175.6344</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1880">
+      <c r="A1880" s="0" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="B1880" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="C1880" s="0" t="inlineStr">
+        <is>
+          <t>25258.3756</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1881">
+      <c r="A1881" s="0" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="B1881" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C1881" s="0" t="inlineStr">
+        <is>
+          <t>22286.8020</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1882">
+      <c r="A1882" s="0" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B1882" s="0" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="C1882" s="0" t="inlineStr">
+        <is>
+          <t>88404.3146</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1883">
+      <c r="A1883" s="0" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B1883" s="0" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="C1883" s="0" t="inlineStr">
+        <is>
+          <t>59431.4720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1884">
+      <c r="A1884" s="0" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B1884" s="0" t="inlineStr">
+        <is>
+          <t>53745</t>
+        </is>
+      </c>
+      <c r="C1884" s="0" t="inlineStr">
+        <is>
+          <t>5392.8240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1885">
+      <c r="A1885" s="0" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B1885" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C1885" s="0" t="inlineStr">
+        <is>
+          <t>20231.9256</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1886">
+      <c r="A1886" s="0" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B1886" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C1886" s="0" t="inlineStr">
+        <is>
+          <t>10856.1552</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1887">
+      <c r="A1887" s="0" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B1887" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C1887" s="0" t="inlineStr">
+        <is>
+          <t>986.9232</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1888">
+      <c r="A1888" s="0" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B1888" s="0" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C1888" s="0" t="inlineStr">
+        <is>
+          <t>2467.3080</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1889">
+      <c r="A1889" s="0" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B1889" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C1889" s="0" t="inlineStr">
+        <is>
+          <t>21465.5796</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1890">
+      <c r="A1890" s="0" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="B1890" s="0" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C1890" s="0" t="inlineStr">
+        <is>
+          <t>10856.1552</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1891">
+      <c r="A1891" s="0" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="B1891" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C1891" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1892">
+      <c r="A1892" s="0" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="B1892" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C1892" s="0" t="inlineStr">
+        <is>
+          <t>6415.0008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1893">
+      <c r="A1893" s="0" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="B1893" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C1893" s="0" t="inlineStr">
+        <is>
+          <t>3700.9620</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1894">
+      <c r="A1894" s="0" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="B1894" s="0" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="C1894" s="0" t="inlineStr">
+        <is>
+          <t>56849.0126</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1895">
+      <c r="A1895" s="0" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="B1895" s="0" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C1895" s="0" t="inlineStr">
+        <is>
+          <t>37180.8708</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1896">
+      <c r="A1896" s="0" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="B1896" s="0" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C1896" s="0" t="inlineStr">
+        <is>
+          <t>23709.5408</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1897">
+      <c r="A1897" s="0" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="B1897" s="0" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="C1897" s="0" t="inlineStr">
+        <is>
+          <t>232444.6650</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1898">
+      <c r="A1898" s="0" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="B1898" s="0" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="C1898" s="0" t="inlineStr">
+        <is>
+          <t>94682.1984</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1899">
+      <c r="A1899" s="0" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="B1899" s="0" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="C1899" s="0" t="inlineStr">
+        <is>
+          <t>137670.1044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1900">
+      <c r="A1900" s="0" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="B1900" s="0" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+      <c r="C1900" s="0" t="inlineStr">
+        <is>
+          <t>184730.3248</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1901">
+      <c r="A1901" s="0" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B1901" s="0" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="C1901" s="0" t="inlineStr">
+        <is>
+          <t>92835.8688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1902">
+      <c r="A1902" s="0" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="B1902" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C1902" s="0" t="inlineStr">
+        <is>
+          <t>133933.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1903">
+      <c r="A1903" s="0" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="B1903" s="0" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="C1903" s="0" t="inlineStr">
+        <is>
+          <t>138216.6380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1904">
+      <c r="A1904" s="0" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="B1904" s="0" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="C1904" s="0" t="inlineStr">
+        <is>
+          <t>47290.9272</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1905">
+      <c r="A1905" s="0" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="B1905" s="0" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C1905" s="0" t="inlineStr">
+        <is>
+          <t>67864.7716</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1906">
+      <c r="A1906" s="0" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="B1906" s="0" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="C1906" s="0" t="inlineStr">
+        <is>
+          <t>93884.3528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1907">
+      <c r="A1907" s="0" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="B1907" s="0" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="C1907" s="0" t="inlineStr">
+        <is>
+          <t>27941.7710</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1908">
+      <c r="A1908" s="0" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="B1908" s="0" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="C1908" s="0" t="inlineStr">
+        <is>
+          <t>14263.9810</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1909">
+      <c r="A1909" s="0" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="B1909" s="0" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C1909" s="0" t="inlineStr">
+        <is>
+          <t>4298.7340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1910">
+      <c r="A1910" s="0" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="B1910" s="0" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="C1910" s="0" t="inlineStr">
+        <is>
+          <t>20907.4790</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1911">
+      <c r="A1911" s="0" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="B1911" s="0" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="C1911" s="0" t="inlineStr">
+        <is>
+          <t>16763.6900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1912">
+      <c r="A1912" s="0" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="B1912" s="0" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="C1912" s="0" t="inlineStr">
+        <is>
+          <t>11681.8800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1913">
+      <c r="A1913" s="0" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="B1913" s="0" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="C1913" s="0" t="inlineStr">
+        <is>
+          <t>7331.8900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1914">
+      <c r="A1914" s="0" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="B1914" s="0" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="C1914" s="0" t="inlineStr">
+        <is>
+          <t>18854.1492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1915">
+      <c r="A1915" s="0" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="B1915" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="C1915" s="0" t="inlineStr">
+        <is>
+          <t>26802.4670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1916">
+      <c r="A1916" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="B1916" s="0" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C1916" s="0" t="inlineStr">
+        <is>
+          <t>15342.1018</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1917">
+      <c r="A1917" s="0" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="B1917" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C1917" s="0" t="inlineStr">
+        <is>
+          <t>2772.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1918">
+      <c r="A1918" s="0" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="B1918" s="0" t="inlineStr">
+        <is>
+          <t>5027</t>
+        </is>
+      </c>
+      <c r="C1918" s="0" t="inlineStr">
+        <is>
+          <t>162694.4550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1919">
+      <c r="A1919" s="0" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="B1919" s="0" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="C1919" s="0" t="inlineStr">
+        <is>
+          <t>184921.0200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1920">
+      <c r="A1920" s="0" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="B1920" s="0" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="C1920" s="0" t="inlineStr">
+        <is>
+          <t>216291.7750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1921">
+      <c r="A1921" s="0" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B1921" s="0" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="C1921" s="0" t="inlineStr">
+        <is>
+          <t>154113.9600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1922">
+      <c r="A1922" s="0" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="B1922" s="0" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="C1922" s="0" t="inlineStr">
+        <is>
+          <t>175714.7700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1923">
+      <c r="A1923" s="0" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="B1923" s="0" t="inlineStr">
+        <is>
+          <t>3409</t>
+        </is>
+      </c>
+      <c r="C1923" s="0" t="inlineStr">
+        <is>
+          <t>147836.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1924">
+      <c r="A1924" s="0" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="B1924" s="0" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="C1924" s="0" t="inlineStr">
+        <is>
+          <t>127191.4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1925">
+      <c r="A1925" s="0" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="B1925" s="0" t="inlineStr">
+        <is>
+          <t>5627</t>
+        </is>
+      </c>
+      <c r="C1925" s="0" t="inlineStr">
+        <is>
+          <t>176997.5002</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1926">
+      <c r="A1926" s="0" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="B1926" s="0" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+      <c r="C1926" s="0" t="inlineStr">
+        <is>
+          <t>269084.1916</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1927">
+      <c r="A1927" s="0" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="B1927" s="0" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="C1927" s="0" t="inlineStr">
+        <is>
+          <t>182450.7454</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1928">
+      <c r="A1928" s="0" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="B1928" s="0" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="C1928" s="0" t="inlineStr">
+        <is>
+          <t>162165.1710</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1929">
+      <c r="A1929" s="0" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="B1929" s="0" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="C1929" s="0" t="inlineStr">
+        <is>
+          <t>245879.0684</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1930">
+      <c r="A1930" s="0" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="B1930" s="0" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="C1930" s="0" t="inlineStr">
+        <is>
+          <t>148345.9138</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1931">
+      <c r="A1931" s="0" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="B1931" s="0" t="inlineStr">
+        <is>
+          <t>3352</t>
+        </is>
+      </c>
+      <c r="C1931" s="0" t="inlineStr">
+        <is>
+          <t>210981.8452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1932">
+      <c r="A1932" s="0" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="B1932" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C1932" s="0" t="inlineStr">
+        <is>
+          <t>1885.9862</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1933">
+      <c r="A1933" s="0" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="B1933" s="0" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C1933" s="0" t="inlineStr">
+        <is>
+          <t>1478.7568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1934">
+      <c r="A1934" s="0" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="B1934" s="0" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="C1934" s="0" t="inlineStr">
+        <is>
+          <t>20712.0820</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1935">
+      <c r="A1935" s="0" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="B1935" s="0" t="inlineStr">
+        <is>
+          <t>53919</t>
+        </is>
+      </c>
+      <c r="C1935" s="0" t="inlineStr">
+        <is>
+          <t>9952.2822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1936">
+      <c r="A1936" s="0" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="B1936" s="0" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="C1936" s="0" t="inlineStr">
+        <is>
+          <t>989.0914</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1937">
+      <c r="A1937" s="0" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="B1937" s="0" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="C1937" s="0" t="inlineStr">
+        <is>
+          <t>3997.9462</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1938">
+      <c r="A1938" s="0" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="B1938" s="0" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="C1938" s="0" t="inlineStr">
+        <is>
+          <t>239931.6150</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1939">
+      <c r="A1939" s="0" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="B1939" s="0" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="C1939" s="0" t="inlineStr">
+        <is>
+          <t>9220.2446</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1940">
+      <c r="A1940" s="0" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="B1940" s="0" t="inlineStr">
+        <is>
+          <t>42657</t>
+        </is>
+      </c>
+      <c r="C1940" s="0" t="inlineStr">
+        <is>
+          <t>7781.9066</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1941">
+      <c r="A1941" s="0" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="B1941" s="0" t="inlineStr">
+        <is>
+          <t>8869</t>
+        </is>
+      </c>
+      <c r="C1941" s="0" t="inlineStr">
+        <is>
+          <t>37461.5750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1942">
+      <c r="A1942" s="0" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="B1942" s="0" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="C1942" s="0" t="inlineStr">
+        <is>
+          <t>6683.9156</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1943">
+      <c r="A1943" s="0" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="B1943" s="0" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C1943" s="0" t="inlineStr">
+        <is>
+          <t>105740.5440</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1944">
+      <c r="A1944" s="0" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="B1944" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C1944" s="0" t="inlineStr">
+        <is>
+          <t>282655.3392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1945">
+      <c r="A1945" s="0" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="B1945" s="0" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="C1945" s="0" t="inlineStr">
+        <is>
+          <t>162212.1228</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1946">
+      <c r="A1946" s="0" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="B1946" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C1946" s="0" t="inlineStr">
+        <is>
+          <t>78483.5844</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1947">
+      <c r="A1947" s="0" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="B1947" s="0" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="C1947" s="0" t="inlineStr">
+        <is>
+          <t>360948.1980</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1948">
+      <c r="A1948" s="0" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="B1948" s="0" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C1948" s="0" t="inlineStr">
+        <is>
+          <t>61318.1100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1949">
+      <c r="A1949" s="0" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="B1949" s="0" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="C1949" s="0" t="inlineStr">
+        <is>
+          <t>38988.2220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1950">
+      <c r="A1950" s="0" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="B1950" s="0" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C1950" s="0" t="inlineStr">
+        <is>
+          <t>10363.2060</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1951">
+      <c r="A1951" s="0" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="B1951" s="0" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="C1951" s="0" t="inlineStr">
+        <is>
+          <t>79075.1220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1952">
+      <c r="A1952" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="B1952" s="0" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="C1952" s="0" t="inlineStr">
+        <is>
+          <t>56745.2340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1953">
+      <c r="A1953" s="0" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="B1953" s="0" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="C1953" s="0" t="inlineStr">
+        <is>
+          <t>36434.5380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1954">
+      <c r="A1954" s="0" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="B1954" s="0" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="C1954" s="0" t="inlineStr">
+        <is>
+          <t>30317.5740</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1955">
+      <c r="A1955" s="0" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="B1955" s="0" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="C1955" s="0" t="inlineStr">
+        <is>
+          <t>83677.6920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1956">
+      <c r="A1956" s="0" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="B1956" s="0" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="C1956" s="0" t="inlineStr">
+        <is>
+          <t>284085.7812</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1957">
+      <c r="A1957" s="0" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="B1957" s="0" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="C1957" s="0" t="inlineStr">
+        <is>
+          <t>172892.7564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1958">
+      <c r="A1958" s="0" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="B1958" s="0" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C1958" s="0" t="inlineStr">
+        <is>
+          <t>121206.1188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1959">
+      <c r="A1959" s="0" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="B1959" s="0" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="C1959" s="0" t="inlineStr">
+        <is>
+          <t>347597.4060</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1960">
+      <c r="A1960" s="0" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="B1960" s="0" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="C1960" s="0" t="inlineStr">
+        <is>
+          <t>83338.7100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1961">
+      <c r="A1961" s="0" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="B1961" s="0" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C1961" s="0" t="inlineStr">
+        <is>
+          <t>32072.0400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1962">
+      <c r="A1962" s="0" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="B1962" s="0" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="C1962" s="0" t="inlineStr">
+        <is>
+          <t>167843.6760</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1963">
+      <c r="A1963" s="0" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="B1963" s="0" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="C1963" s="0" t="inlineStr">
+        <is>
+          <t>343123.7028</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1964">
+      <c r="A1964" s="0" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B1964" s="0" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="C1964" s="0" t="inlineStr">
+        <is>
+          <t>192824.2264</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1965">
+      <c r="A1965" s="0" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="B1965" s="0" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C1965" s="0" t="inlineStr">
+        <is>
+          <t>110768.4688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1966">
+      <c r="A1966" s="0" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="B1966" s="0" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="C1966" s="0" t="inlineStr">
+        <is>
+          <t>355438.8704</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1967">
+      <c r="A1967" s="0" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="B1967" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C1967" s="0" t="inlineStr">
+        <is>
+          <t>65079.5948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1968">
+      <c r="A1968" s="0" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="B1968" s="0" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C1968" s="0" t="inlineStr">
+        <is>
+          <t>25833.7800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1969">
+      <c r="A1969" s="0" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="B1969" s="0" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C1969" s="0" t="inlineStr">
+        <is>
+          <t>75630.6180</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1970">
+      <c r="A1970" s="0" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="B1970" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C1970" s="0" t="inlineStr">
+        <is>
+          <t>31302.8532</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1971">
+      <c r="A1971" s="0" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="B1971" s="0" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C1971" s="0" t="inlineStr">
+        <is>
+          <t>65068.0744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1972">
+      <c r="A1972" s="0" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="B1972" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C1972" s="0" t="inlineStr">
+        <is>
+          <t>26655.1336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1973">
+      <c r="A1973" s="0" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="B1973" s="0" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="C1973" s="0" t="inlineStr">
+        <is>
+          <t>35919.7932</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1974">
+      <c r="A1974" s="0" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="B1974" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C1974" s="0" t="inlineStr">
+        <is>
+          <t>39594.4992</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1975">
+      <c r="A1975" s="0" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="B1975" s="0" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C1975" s="0" t="inlineStr">
+        <is>
+          <t>35210.1768</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1976">
+      <c r="A1976" s="0" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="B1976" s="0" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="C1976" s="0" t="inlineStr">
+        <is>
+          <t>28701.4920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1977">
+      <c r="A1977" s="0" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="B1977" s="0" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="C1977" s="0" t="inlineStr">
+        <is>
+          <t>32520.8244</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1978">
+      <c r="A1978" s="0" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="B1978" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="C1978" s="0" t="inlineStr">
+        <is>
+          <t>38871.3120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1979">
+      <c r="A1979" s="0" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="B1979" s="0" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C1979" s="0" t="inlineStr">
+        <is>
+          <t>17625.2736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1980">
+      <c r="A1980" s="0" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="B1980" s="0" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C1980" s="0" t="inlineStr">
+        <is>
+          <t>30455.4360</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1981">
+      <c r="A1981" s="0" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="B1981" s="0" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="C1981" s="0" t="inlineStr">
+        <is>
+          <t>32161.8044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1982">
+      <c r="A1982" s="0" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="B1982" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C1982" s="0" t="inlineStr">
+        <is>
+          <t>37540.1048</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1983">
+      <c r="A1983" s="0" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="B1983" s="0" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C1983" s="0" t="inlineStr">
+        <is>
+          <t>17171.6820</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1984">
+      <c r="A1984" s="0" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="B1984" s="0" t="inlineStr">
+        <is>
+          <t>24437</t>
+        </is>
+      </c>
+      <c r="C1984" s="0" t="inlineStr">
+        <is>
+          <t>2596.9190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1985">
+      <c r="A1985" s="0" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="B1985" s="0" t="inlineStr">
+        <is>
+          <t>14435</t>
+        </is>
+      </c>
+      <c r="C1985" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1986">
+      <c r="A1986" s="0" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="B1986" s="0" t="inlineStr">
+        <is>
+          <t>15063</t>
+        </is>
+      </c>
+      <c r="C1986" s="0" t="inlineStr">
+        <is>
+          <t>8091.2340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1987">
+      <c r="A1987" s="0" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="B1987" s="0" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="C1987" s="0" t="inlineStr">
+        <is>
+          <t>39743.2640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1988">
+      <c r="A1988" s="0" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="B1988" s="0" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="C1988" s="0" t="inlineStr">
+        <is>
+          <t>124370.4968</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1989">
+      <c r="A1989" s="0" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="B1989" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="C1989" s="0" t="inlineStr">
+        <is>
+          <t>96723.0088</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Folders/Advanced Databases/PracticaETL1/ProductIdCost.xlsx
+++ b/Folders/Advanced Databases/PracticaETL1/ProductIdCost.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1989"/>
+  <dimension ref="A1:C2486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="K4" sqref="K4"/>
@@ -34235,6 +34235,8455 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="1990">
+      <c r="A1990" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1990" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C1990" s="0" t="inlineStr">
+        <is>
+          <t>954.9925</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1991">
+      <c r="A1991" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B1991" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C1991" s="0" t="inlineStr">
+        <is>
+          <t>628.7400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1992">
+      <c r="A1992" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B1992" s="0" t="inlineStr">
+        <is>
+          <t>537800</t>
+        </is>
+      </c>
+      <c r="C1992" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1993">
+      <c r="A1993" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B1993" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C1993" s="0" t="inlineStr">
+        <is>
+          <t>1026.4590</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1994">
+      <c r="A1994" s="0" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B1994" s="0" t="inlineStr">
+        <is>
+          <t>142314</t>
+        </is>
+      </c>
+      <c r="C1994" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1995">
+      <c r="A1995" s="0" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B1995" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C1995" s="0" t="inlineStr">
+        <is>
+          <t>123215.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1996">
+      <c r="A1996" s="0" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="B1996" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C1996" s="0" t="inlineStr">
+        <is>
+          <t>151905.6000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1997">
+      <c r="A1997" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="B1997" s="0" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="C1997" s="0" t="inlineStr">
+        <is>
+          <t>309158.8500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1998">
+      <c r="A1998" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B1998" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C1998" s="0" t="inlineStr">
+        <is>
+          <t>2279.6865</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1999">
+      <c r="A1999" s="0" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B1999" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C1999" s="0" t="inlineStr">
+        <is>
+          <t>2042.4915</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2000">
+      <c r="A2000" s="0" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B2000" s="0" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="C2000" s="0" t="inlineStr">
+        <is>
+          <t>25669.9800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2001">
+      <c r="A2001" s="0" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B2001" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2001" s="0" t="inlineStr">
+        <is>
+          <t>904.7430</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2002">
+      <c r="A2002" s="0" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="B2002" s="0" t="inlineStr">
+        <is>
+          <t>141046</t>
+        </is>
+      </c>
+      <c r="C2002" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2003">
+      <c r="A2003" s="0" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="B2003" s="0" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="C2003" s="0" t="inlineStr">
+        <is>
+          <t>1312.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2004">
+      <c r="A2004" s="0" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B2004" s="0" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="C2004" s="0" t="inlineStr">
+        <is>
+          <t>1312.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2005">
+      <c r="A2005" s="0" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="B2005" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C2005" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2006">
+      <c r="A2006" s="0" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B2006" s="0" t="inlineStr">
+        <is>
+          <t>37682</t>
+        </is>
+      </c>
+      <c r="C2006" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2007">
+      <c r="A2007" s="0" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B2007" s="0" t="inlineStr">
+        <is>
+          <t>69642</t>
+        </is>
+      </c>
+      <c r="C2007" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2008">
+      <c r="A2008" s="0" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B2008" s="0" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="C2008" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2009">
+      <c r="A2009" s="0" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B2009" s="0" t="inlineStr">
+        <is>
+          <t>142314</t>
+        </is>
+      </c>
+      <c r="C2009" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2010">
+      <c r="A2010" s="0" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B2010" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C2010" s="0" t="inlineStr">
+        <is>
+          <t>29741.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2011">
+      <c r="A2011" s="0" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B2011" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C2011" s="0" t="inlineStr">
+        <is>
+          <t>940.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2012">
+      <c r="A2012" s="0" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B2012" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C2012" s="0" t="inlineStr">
+        <is>
+          <t>896.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2013">
+      <c r="A2013" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B2013" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C2013" s="0" t="inlineStr">
+        <is>
+          <t>986.4540</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2014">
+      <c r="A2014" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="B2014" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2014" s="0" t="inlineStr">
+        <is>
+          <t>760.2840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2015">
+      <c r="A2015" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="B2015" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2015" s="0" t="inlineStr">
+        <is>
+          <t>722.4840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2016">
+      <c r="A2016" s="0" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B2016" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2016" s="0" t="inlineStr">
+        <is>
+          <t>675.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2017">
+      <c r="A2017" s="0" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B2017" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2017" s="0" t="inlineStr">
+        <is>
+          <t>611.5725</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2018">
+      <c r="A2018" s="0" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B2018" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2018" s="0" t="inlineStr">
+        <is>
+          <t>456.5610</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2019">
+      <c r="A2019" s="0" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B2019" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2019" s="0" t="inlineStr">
+        <is>
+          <t>507.8430</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2020">
+      <c r="A2020" s="0" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="B2020" s="0" t="inlineStr">
+        <is>
+          <t>71157</t>
+        </is>
+      </c>
+      <c r="C2020" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2021">
+      <c r="A2021" s="0" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B2021" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C2021" s="0" t="inlineStr">
+        <is>
+          <t>29279.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2022">
+      <c r="A2022" s="0" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="B2022" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C2022" s="0" t="inlineStr">
+        <is>
+          <t>6237.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2023">
+      <c r="A2023" s="0" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B2023" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C2023" s="0" t="inlineStr">
+        <is>
+          <t>3003.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2024">
+      <c r="A2024" s="0" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B2024" s="0" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="C2024" s="0" t="inlineStr">
+        <is>
+          <t>2094.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2025">
+      <c r="A2025" s="0" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B2025" s="0" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="C2025" s="0" t="inlineStr">
+        <is>
+          <t>2488.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2026">
+      <c r="A2026" s="0" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B2026" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C2026" s="0" t="inlineStr">
+        <is>
+          <t>2094.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2027">
+      <c r="A2027" s="0" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B2027" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2027" s="0" t="inlineStr">
+        <is>
+          <t>563.5395</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2028">
+      <c r="A2028" s="0" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B2028" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2028" s="0" t="inlineStr">
+        <is>
+          <t>546.0210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2029">
+      <c r="A2029" s="0" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B2029" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2029" s="0" t="inlineStr">
+        <is>
+          <t>448.2135</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2030">
+      <c r="A2030" s="0" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B2030" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2030" s="0" t="inlineStr">
+        <is>
+          <t>409.7520</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2031">
+      <c r="A2031" s="0" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B2031" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2031" s="0" t="inlineStr">
+        <is>
+          <t>390.8520</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2032">
+      <c r="A2032" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="B2032" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2032" s="0" t="inlineStr">
+        <is>
+          <t>429.3135</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2033">
+      <c r="A2033" s="0" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B2033" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2033" s="0" t="inlineStr">
+        <is>
+          <t>260.4105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2034">
+      <c r="A2034" s="0" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="B2034" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2034" s="0" t="inlineStr">
+        <is>
+          <t>247.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2035">
+      <c r="A2035" s="0" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="B2035" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2035" s="0" t="inlineStr">
+        <is>
+          <t>273.4515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2036">
+      <c r="A2036" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="B2036" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2036" s="0" t="inlineStr">
+        <is>
+          <t>247.8105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2037">
+      <c r="A2037" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="B2037" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2037" s="0" t="inlineStr">
+        <is>
+          <t>235.2105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2038">
+      <c r="A2038" s="0" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B2038" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2038" s="0" t="inlineStr">
+        <is>
+          <t>260.8515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2039">
+      <c r="A2039" s="0" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B2039" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2039" s="0" t="inlineStr">
+        <is>
+          <t>235.2105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2040">
+      <c r="A2040" s="0" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="B2040" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2040" s="0" t="inlineStr">
+        <is>
+          <t>222.6105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2041">
+      <c r="A2041" s="0" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="B2041" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2041" s="0" t="inlineStr">
+        <is>
+          <t>248.2515</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2042">
+      <c r="A2042" s="0" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B2042" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2042" s="0" t="inlineStr">
+        <is>
+          <t>222.6105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2043">
+      <c r="A2043" s="0" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B2043" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2043" s="0" t="inlineStr">
+        <is>
+          <t>649.2780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2044">
+      <c r="A2044" s="0" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B2044" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2044" s="0" t="inlineStr">
+        <is>
+          <t>649.4985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2045">
+      <c r="A2045" s="0" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B2045" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2045" s="0" t="inlineStr">
+        <is>
+          <t>506.8665</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2046">
+      <c r="A2046" s="0" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B2046" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2046" s="0" t="inlineStr">
+        <is>
+          <t>494.2665</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2047">
+      <c r="A2047" s="0" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B2047" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2047" s="0" t="inlineStr">
+        <is>
+          <t>500.7870</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2048">
+      <c r="A2048" s="0" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B2048" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2048" s="0" t="inlineStr">
+        <is>
+          <t>506.7090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2049">
+      <c r="A2049" s="0" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B2049" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2049" s="0" t="inlineStr">
+        <is>
+          <t>494.1090</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2050">
+      <c r="A2050" s="0" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B2050" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2050" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2051">
+      <c r="A2051" s="0" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B2051" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2051" s="0" t="inlineStr">
+        <is>
+          <t>266.3640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2052">
+      <c r="A2052" s="0" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B2052" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2052" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2053">
+      <c r="A2053" s="0" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B2053" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2053" s="0" t="inlineStr">
+        <is>
+          <t>253.1655</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2054">
+      <c r="A2054" s="0" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B2054" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2054" s="0" t="inlineStr">
+        <is>
+          <t>278.8065</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2055">
+      <c r="A2055" s="0" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B2055" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2055" s="0" t="inlineStr">
+        <is>
+          <t>253.3230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2056">
+      <c r="A2056" s="0" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B2056" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2056" s="0" t="inlineStr">
+        <is>
+          <t>259.8435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2057">
+      <c r="A2057" s="0" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B2057" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2057" s="0" t="inlineStr">
+        <is>
+          <t>259.8435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2058">
+      <c r="A2058" s="0" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B2058" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2058" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2059">
+      <c r="A2059" s="0" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B2059" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2059" s="0" t="inlineStr">
+        <is>
+          <t>247.2435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2060">
+      <c r="A2060" s="0" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B2060" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2060" s="0" t="inlineStr">
+        <is>
+          <t>247.2435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2061">
+      <c r="A2061" s="0" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="B2061" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2061" s="0" t="inlineStr">
+        <is>
+          <t>228.1230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2062">
+      <c r="A2062" s="0" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="B2062" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2062" s="0" t="inlineStr">
+        <is>
+          <t>259.6860</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2063">
+      <c r="A2063" s="0" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B2063" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2063" s="0" t="inlineStr">
+        <is>
+          <t>259.6860</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2064">
+      <c r="A2064" s="0" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B2064" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2064" s="0" t="inlineStr">
+        <is>
+          <t>240.7230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2065">
+      <c r="A2065" s="0" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B2065" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2065" s="0" t="inlineStr">
+        <is>
+          <t>266.3640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2066">
+      <c r="A2066" s="0" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="B2066" s="0" t="inlineStr">
+        <is>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="C2066" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2067">
+      <c r="A2067" s="0" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B2067" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C2067" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2068">
+      <c r="A2068" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B2068" s="0" t="inlineStr">
+        <is>
+          <t>40556</t>
+        </is>
+      </c>
+      <c r="C2068" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2069">
+      <c r="A2069" s="0" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B2069" s="0" t="inlineStr">
+        <is>
+          <t>71962</t>
+        </is>
+      </c>
+      <c r="C2069" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2070">
+      <c r="A2070" s="0" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B2070" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2070" s="0" t="inlineStr">
+        <is>
+          <t>712.0575</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2071">
+      <c r="A2071" s="0" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B2071" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2071" s="0" t="inlineStr">
+        <is>
+          <t>693.3780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2072">
+      <c r="A2072" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B2072" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2072" s="0" t="inlineStr">
+        <is>
+          <t>693.5985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2073">
+      <c r="A2073" s="0" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B2073" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2073" s="0" t="inlineStr">
+        <is>
+          <t>687.2985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2074">
+      <c r="A2074" s="0" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B2074" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2074" s="0" t="inlineStr">
+        <is>
+          <t>661.8780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2075">
+      <c r="A2075" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B2075" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2075" s="0" t="inlineStr">
+        <is>
+          <t>662.0985</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2076">
+      <c r="A2076" s="0" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B2076" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2076" s="0" t="inlineStr">
+        <is>
+          <t>383.3550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2077">
+      <c r="A2077" s="0" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B2077" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C2077" s="0" t="inlineStr">
+        <is>
+          <t>377.0550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2078">
+      <c r="A2078" s="0" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B2078" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2078" s="0" t="inlineStr">
+        <is>
+          <t>234.4230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2079">
+      <c r="A2079" s="0" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B2079" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2079" s="0" t="inlineStr">
+        <is>
+          <t>240.9435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2080">
+      <c r="A2080" s="0" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B2080" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2080" s="0" t="inlineStr">
+        <is>
+          <t>240.9435</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2081">
+      <c r="A2081" s="0" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B2081" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2081" s="0" t="inlineStr">
+        <is>
+          <t>259.9380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2082">
+      <c r="A2082" s="0" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B2082" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2082" s="0" t="inlineStr">
+        <is>
+          <t>266.4585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2083">
+      <c r="A2083" s="0" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B2083" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2083" s="0" t="inlineStr">
+        <is>
+          <t>266.4585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2084">
+      <c r="A2084" s="0" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B2084" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2084" s="0" t="inlineStr">
+        <is>
+          <t>247.3380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2085">
+      <c r="A2085" s="0" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B2085" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2085" s="0" t="inlineStr">
+        <is>
+          <t>253.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2086">
+      <c r="A2086" s="0" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B2086" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2086" s="0" t="inlineStr">
+        <is>
+          <t>253.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2087">
+      <c r="A2087" s="0" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B2087" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2087" s="0" t="inlineStr">
+        <is>
+          <t>234.7380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2088">
+      <c r="A2088" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B2088" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2088" s="0" t="inlineStr">
+        <is>
+          <t>241.2585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2089">
+      <c r="A2089" s="0" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B2089" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2089" s="0" t="inlineStr">
+        <is>
+          <t>279.3735</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2090">
+      <c r="A2090" s="0" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B2090" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2090" s="0" t="inlineStr">
+        <is>
+          <t>856.8315</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2091">
+      <c r="A2091" s="0" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B2091" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2091" s="0" t="inlineStr">
+        <is>
+          <t>819.0315</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2092">
+      <c r="A2092" s="0" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B2092" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2092" s="0" t="inlineStr">
+        <is>
+          <t>746.8650</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2093">
+      <c r="A2093" s="0" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B2093" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2093" s="0" t="inlineStr">
+        <is>
+          <t>682.7625</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2094">
+      <c r="A2094" s="0" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B2094" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2094" s="0" t="inlineStr">
+        <is>
+          <t>520.8210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2095">
+      <c r="A2095" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B2095" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2095" s="0" t="inlineStr">
+        <is>
+          <t>572.1030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2096">
+      <c r="A2096" s="0" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B2096" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2096" s="0" t="inlineStr">
+        <is>
+          <t>520.8210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2097">
+      <c r="A2097" s="0" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B2097" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2097" s="0" t="inlineStr">
+        <is>
+          <t>495.6210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2098">
+      <c r="A2098" s="0" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B2098" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2098" s="0" t="inlineStr">
+        <is>
+          <t>546.9030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2099">
+      <c r="A2099" s="0" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B2099" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2099" s="0" t="inlineStr">
+        <is>
+          <t>495.6210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2100">
+      <c r="A2100" s="0" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B2100" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2100" s="0" t="inlineStr">
+        <is>
+          <t>470.4210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2101">
+      <c r="A2101" s="0" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B2101" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2101" s="0" t="inlineStr">
+        <is>
+          <t>521.7030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2102">
+      <c r="A2102" s="0" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B2102" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2102" s="0" t="inlineStr">
+        <is>
+          <t>470.4210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2103">
+      <c r="A2103" s="0" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B2103" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2103" s="0" t="inlineStr">
+        <is>
+          <t>445.2210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2104">
+      <c r="A2104" s="0" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B2104" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2104" s="0" t="inlineStr">
+        <is>
+          <t>496.5030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2105">
+      <c r="A2105" s="0" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B2105" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2105" s="0" t="inlineStr">
+        <is>
+          <t>445.2210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2106">
+      <c r="A2106" s="0" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B2106" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2106" s="0" t="inlineStr">
+        <is>
+          <t>266.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2107">
+      <c r="A2107" s="0" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B2107" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2107" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2108">
+      <c r="A2108" s="0" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B2108" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2108" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2109">
+      <c r="A2109" s="0" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="B2109" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2109" s="0" t="inlineStr">
+        <is>
+          <t>254.1105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2110">
+      <c r="A2110" s="0" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="B2110" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2110" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2111">
+      <c r="A2111" s="0" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B2111" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2111" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2112">
+      <c r="A2112" s="0" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B2112" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2112" s="0" t="inlineStr">
+        <is>
+          <t>241.5105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2113">
+      <c r="A2113" s="0" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B2113" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2113" s="0" t="inlineStr">
+        <is>
+          <t>248.0310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2114">
+      <c r="A2114" s="0" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B2114" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2114" s="0" t="inlineStr">
+        <is>
+          <t>248.0310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2115">
+      <c r="A2115" s="0" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B2115" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2115" s="0" t="inlineStr">
+        <is>
+          <t>267.1830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2116">
+      <c r="A2116" s="0" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B2116" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2116" s="0" t="inlineStr">
+        <is>
+          <t>254.5830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2117">
+      <c r="A2117" s="0" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B2117" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2117" s="0" t="inlineStr">
+        <is>
+          <t>280.2240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2118">
+      <c r="A2118" s="0" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="B2118" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2118" s="0" t="inlineStr">
+        <is>
+          <t>254.5830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2119">
+      <c r="A2119" s="0" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B2119" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2119" s="0" t="inlineStr">
+        <is>
+          <t>241.9830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2120">
+      <c r="A2120" s="0" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="B2120" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2120" s="0" t="inlineStr">
+        <is>
+          <t>267.6240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2121">
+      <c r="A2121" s="0" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="B2121" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2121" s="0" t="inlineStr">
+        <is>
+          <t>241.9830</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2122">
+      <c r="A2122" s="0" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B2122" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2122" s="0" t="inlineStr">
+        <is>
+          <t>266.7105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2123">
+      <c r="A2123" s="0" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B2123" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2123" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2124">
+      <c r="A2124" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B2124" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2124" s="0" t="inlineStr">
+        <is>
+          <t>273.2310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2125">
+      <c r="A2125" s="0" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B2125" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2125" s="0" t="inlineStr">
+        <is>
+          <t>254.1105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2126">
+      <c r="A2126" s="0" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="B2126" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2126" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2127">
+      <c r="A2127" s="0" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B2127" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2127" s="0" t="inlineStr">
+        <is>
+          <t>260.6310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2128">
+      <c r="A2128" s="0" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B2128" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C2128" s="0" t="inlineStr">
+        <is>
+          <t>241.5105</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2129">
+      <c r="A2129" s="0" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B2129" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2129" s="0" t="inlineStr">
+        <is>
+          <t>124.3620</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2130">
+      <c r="A2130" s="0" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B2130" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2130" s="0" t="inlineStr">
+        <is>
+          <t>715.2075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2131">
+      <c r="A2131" s="0" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B2131" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2131" s="0" t="inlineStr">
+        <is>
+          <t>142.5690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2132">
+      <c r="A2132" s="0" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B2132" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2132" s="0" t="inlineStr">
+        <is>
+          <t>136.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2133">
+      <c r="A2133" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B2133" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2133" s="0" t="inlineStr">
+        <is>
+          <t>149.0895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2134">
+      <c r="A2134" s="0" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B2134" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2134" s="0" t="inlineStr">
+        <is>
+          <t>136.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2135">
+      <c r="A2135" s="0" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B2135" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2135" s="0" t="inlineStr">
+        <is>
+          <t>129.9690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2136">
+      <c r="A2136" s="0" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B2136" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2136" s="0" t="inlineStr">
+        <is>
+          <t>142.7895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2137">
+      <c r="A2137" s="0" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="B2137" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2137" s="0" t="inlineStr">
+        <is>
+          <t>129.9690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2138">
+      <c r="A2138" s="0" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B2138" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2138" s="0" t="inlineStr">
+        <is>
+          <t>123.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2139">
+      <c r="A2139" s="0" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B2139" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2139" s="0" t="inlineStr">
+        <is>
+          <t>136.4895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2140">
+      <c r="A2140" s="0" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B2140" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2140" s="0" t="inlineStr">
+        <is>
+          <t>123.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2141">
+      <c r="A2141" s="0" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B2141" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2141" s="0" t="inlineStr">
+        <is>
+          <t>117.3690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2142">
+      <c r="A2142" s="0" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="B2142" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2142" s="0" t="inlineStr">
+        <is>
+          <t>130.1895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2143">
+      <c r="A2143" s="0" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="B2143" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2143" s="0" t="inlineStr">
+        <is>
+          <t>117.3690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2144">
+      <c r="A2144" s="0" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="B2144" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C2144" s="0" t="inlineStr">
+        <is>
+          <t>17475.1500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2145">
+      <c r="A2145" s="0" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="B2145" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C2145" s="0" t="inlineStr">
+        <is>
+          <t>12832.0500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2146">
+      <c r="A2146" s="0" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="B2146" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C2146" s="0" t="inlineStr">
+        <is>
+          <t>12196.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2147">
+      <c r="A2147" s="0" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="B2147" s="0" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="C2147" s="0" t="inlineStr">
+        <is>
+          <t>17475.1500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2148">
+      <c r="A2148" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="B2148" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2148" s="0" t="inlineStr">
+        <is>
+          <t>6416.0250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2149">
+      <c r="A2149" s="0" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="B2149" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2149" s="0" t="inlineStr">
+        <is>
+          <t>6098.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2150">
+      <c r="A2150" s="0" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="B2150" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2150" s="0" t="inlineStr">
+        <is>
+          <t>4816.3500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2151">
+      <c r="A2151" s="0" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="B2151" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2151" s="0" t="inlineStr">
+        <is>
+          <t>5330.3250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2152">
+      <c r="A2152" s="0" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="B2152" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2152" s="0" t="inlineStr">
+        <is>
+          <t>3782.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2153">
+      <c r="A2153" s="0" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="B2153" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2153" s="0" t="inlineStr">
+        <is>
+          <t>4290.8250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2154">
+      <c r="A2154" s="0" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="B2154" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2154" s="0" t="inlineStr">
+        <is>
+          <t>4816.3500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2155">
+      <c r="A2155" s="0" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="B2155" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2155" s="0" t="inlineStr">
+        <is>
+          <t>3193.5750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2156">
+      <c r="A2156" s="0" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="B2156" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2156" s="0" t="inlineStr">
+        <is>
+          <t>4874.1000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2157">
+      <c r="A2157" s="0" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="B2157" s="0" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="C2157" s="0" t="inlineStr">
+        <is>
+          <t>5757.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2158">
+      <c r="A2158" s="0" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="B2158" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2158" s="0" t="inlineStr">
+        <is>
+          <t>376.1100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2159">
+      <c r="A2159" s="0" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="B2159" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2159" s="0" t="inlineStr">
+        <is>
+          <t>598.8150</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2160">
+      <c r="A2160" s="0" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="B2160" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="C2160" s="0" t="inlineStr">
+        <is>
+          <t>24242.4000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2161">
+      <c r="A2161" s="0" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="B2161" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="C2161" s="0" t="inlineStr">
+        <is>
+          <t>27699.8400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2162">
+      <c r="A2162" s="0" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B2162" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C2162" s="0" t="inlineStr">
+        <is>
+          <t>21903.2100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2163">
+      <c r="A2163" s="0" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B2163" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C2163" s="0" t="inlineStr">
+        <is>
+          <t>26613.0900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2164">
+      <c r="A2164" s="0" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B2164" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="C2164" s="0" t="inlineStr">
+        <is>
+          <t>20675.9700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2165">
+      <c r="A2165" s="0" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="B2165" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2165" s="0" t="inlineStr">
+        <is>
+          <t>615.3840</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2166">
+      <c r="A2166" s="0" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B2166" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2166" s="0" t="inlineStr">
+        <is>
+          <t>877.7160</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2167">
+      <c r="A2167" s="0" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="B2167" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2167" s="0" t="inlineStr">
+        <is>
+          <t>663.2325</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2168">
+      <c r="A2168" s="0" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="B2168" s="0" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="C2168" s="0" t="inlineStr">
+        <is>
+          <t>3311.2800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2169">
+      <c r="A2169" s="0" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="B2169" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C2169" s="0" t="inlineStr">
+        <is>
+          <t>125288.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2170">
+      <c r="A2170" s="0" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="B2170" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C2170" s="0" t="inlineStr">
+        <is>
+          <t>156560.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2171">
+      <c r="A2171" s="0" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B2171" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C2171" s="0" t="inlineStr">
+        <is>
+          <t>79810.5000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2172">
+      <c r="A2172" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B2172" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C2172" s="0" t="inlineStr">
+        <is>
+          <t>115136.1750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2173">
+      <c r="A2173" s="0" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B2173" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C2173" s="0" t="inlineStr">
+        <is>
+          <t>141037.0500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2174">
+      <c r="A2174" s="0" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B2174" s="0" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="C2174" s="0" t="inlineStr">
+        <is>
+          <t>199329.9000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2175">
+      <c r="A2175" s="0" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B2175" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C2175" s="0" t="inlineStr">
+        <is>
+          <t>195558.8250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2176">
+      <c r="A2176" s="0" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B2176" s="0" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="C2176" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2177">
+      <c r="A2177" s="0" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B2177" s="0" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="C2177" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2178">
+      <c r="A2178" s="0" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="B2178" s="0" t="inlineStr">
+        <is>
+          <t>13081</t>
+        </is>
+      </c>
+      <c r="C2178" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2179">
+      <c r="A2179" s="0" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B2179" s="0" t="inlineStr">
+        <is>
+          <t>18345</t>
+        </is>
+      </c>
+      <c r="C2179" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2180">
+      <c r="A2180" s="0" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="B2180" s="0" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="C2180" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2181">
+      <c r="A2181" s="0" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="B2181" s="0" t="inlineStr">
+        <is>
+          <t>8916</t>
+        </is>
+      </c>
+      <c r="C2181" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2182">
+      <c r="A2182" s="0" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B2182" s="0" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C2182" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2183">
+      <c r="A2183" s="0" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="B2183" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="C2183" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2184">
+      <c r="A2184" s="0" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B2184" s="0" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="C2184" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2185">
+      <c r="A2185" s="0" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B2185" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C2185" s="0" t="inlineStr">
+        <is>
+          <t>63969.6750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2186">
+      <c r="A2186" s="0" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B2186" s="0" t="inlineStr">
+        <is>
+          <t>6050</t>
+        </is>
+      </c>
+      <c r="C2186" s="0" t="inlineStr">
+        <is>
+          <t>82264.8750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2187">
+      <c r="A2187" s="0" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B2187" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C2187" s="0" t="inlineStr">
+        <is>
+          <t>6381.3750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2188">
+      <c r="A2188" s="0" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B2188" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C2188" s="0" t="inlineStr">
+        <is>
+          <t>10019.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2189">
+      <c r="A2189" s="0" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B2189" s="0" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="C2189" s="0" t="inlineStr">
+        <is>
+          <t>18566.6250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2190">
+      <c r="A2190" s="0" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="B2190" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C2190" s="0" t="inlineStr">
+        <is>
+          <t>572.3550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2191">
+      <c r="A2191" s="0" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="B2191" s="0" t="inlineStr">
+        <is>
+          <t>56102</t>
+        </is>
+      </c>
+      <c r="C2191" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2192">
+      <c r="A2192" s="0" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B2192" s="0" t="inlineStr">
+        <is>
+          <t>3300</t>
+        </is>
+      </c>
+      <c r="C2192" s="0" t="inlineStr">
+        <is>
+          <t>53083.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2193">
+      <c r="A2193" s="0" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B2193" s="0" t="inlineStr">
+        <is>
+          <t>71157</t>
+        </is>
+      </c>
+      <c r="C2193" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2194">
+      <c r="A2194" s="0" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="B2194" s="0" t="inlineStr">
+        <is>
+          <t>282092</t>
+        </is>
+      </c>
+      <c r="C2194" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2195">
+      <c r="A2195" s="0" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B2195" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C2195" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2196">
+      <c r="A2196" s="0" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B2196" s="0" t="inlineStr">
+        <is>
+          <t>70523</t>
+        </is>
+      </c>
+      <c r="C2196" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2197">
+      <c r="A2197" s="0" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="B2197" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C2197" s="0" t="inlineStr">
+        <is>
+          <t>7669.2000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2198">
+      <c r="A2198" s="0" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="B2198" s="0" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="C2198" s="0" t="inlineStr">
+        <is>
+          <t>29279.2500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2199">
+      <c r="A2199" s="0" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="B2199" s="0" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="C2199" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2200">
+      <c r="A2200" s="0" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="B2200" s="0" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="C2200" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2201">
+      <c r="A2201" s="0" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="B2201" s="0" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="C2201" s="0" t="inlineStr">
+        <is>
+          <t>58423.8005</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2202">
+      <c r="A2202" s="0" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="B2202" s="0" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="C2202" s="0" t="inlineStr">
+        <is>
+          <t>62203.5210</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2203">
+      <c r="A2203" s="0" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="B2203" s="0" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="C2203" s="0" t="inlineStr">
+        <is>
+          <t>6835.7250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2204">
+      <c r="A2204" s="0" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="B2204" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C2204" s="0" t="inlineStr">
+        <is>
+          <t>555.7500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2205">
+      <c r="A2205" s="0" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="B2205" s="0" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="C2205" s="0" t="inlineStr">
+        <is>
+          <t>66674.1600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2206">
+      <c r="A2206" s="0" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="B2206" s="0" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="C2206" s="0" t="inlineStr">
+        <is>
+          <t>24355.9927</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2207">
+      <c r="A2207" s="0" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B2207" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C2207" s="0" t="inlineStr">
+        <is>
+          <t>1749.6500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2208">
+      <c r="A2208" s="0" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B2208" s="0" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
+      </c>
+      <c r="C2208" s="0" t="inlineStr">
+        <is>
+          <t>67193.9747</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2209">
+      <c r="A2209" s="0" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="B2209" s="0" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="C2209" s="0" t="inlineStr">
+        <is>
+          <t>127334.3609</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2210">
+      <c r="A2210" s="0" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B2210" s="0" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="C2210" s="0" t="inlineStr">
+        <is>
+          <t>60482.8222</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2211">
+      <c r="A2211" s="0" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="B2211" s="0" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="C2211" s="0" t="inlineStr">
+        <is>
+          <t>351523.5649</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2212">
+      <c r="A2212" s="0" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="B2212" s="0" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="C2212" s="0" t="inlineStr">
+        <is>
+          <t>348526.0822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2213">
+      <c r="A2213" s="0" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="B2213" s="0" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="C2213" s="0" t="inlineStr">
+        <is>
+          <t>82240.9768</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2214">
+      <c r="A2214" s="0" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="B2214" s="0" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="C2214" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2215">
+      <c r="A2215" s="0" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="B2215" s="0" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="C2215" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2216">
+      <c r="A2216" s="0" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="B2216" s="0" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="C2216" s="0" t="inlineStr">
+        <is>
+          <t>164933.4780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2217">
+      <c r="A2217" s="0" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B2217" s="0" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="C2217" s="0" t="inlineStr">
+        <is>
+          <t>23904.1305</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2218">
+      <c r="A2218" s="0" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B2218" s="0" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="C2218" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2219">
+      <c r="A2219" s="0" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="B2219" s="0" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="C2219" s="0" t="inlineStr">
+        <is>
+          <t>240423.1477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2220">
+      <c r="A2220" s="0" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B2220" s="0" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="C2220" s="0" t="inlineStr">
+        <is>
+          <t>162338.9361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2221">
+      <c r="A2221" s="0" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B2221" s="0" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C2221" s="0" t="inlineStr">
+        <is>
+          <t>24795.4801</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2222">
+      <c r="A2222" s="0" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B2222" s="0" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="C2222" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2223">
+      <c r="A2223" s="0" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="B2223" s="0" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="C2223" s="0" t="inlineStr">
+        <is>
+          <t>241534.7475</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2224">
+      <c r="A2224" s="0" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="B2224" s="0" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="C2224" s="0" t="inlineStr">
+        <is>
+          <t>169008.5346</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2225">
+      <c r="A2225" s="0" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="B2225" s="0" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="C2225" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2226">
+      <c r="A2226" s="0" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="B2226" s="0" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="C2226" s="0" t="inlineStr">
+        <is>
+          <t>110043.5500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2227">
+      <c r="A2227" s="0" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="B2227" s="0" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="C2227" s="0" t="inlineStr">
+        <is>
+          <t>39615.6780</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2228">
+      <c r="A2228" s="0" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="B2228" s="0" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="C2228" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2229">
+      <c r="A2229" s="0" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="B2229" s="0" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="C2229" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2230">
+      <c r="A2230" s="0" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="B2230" s="0" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="C2230" s="0" t="inlineStr">
+        <is>
+          <t>44224.1391</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2231">
+      <c r="A2231" s="0" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="B2231" s="0" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="C2231" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2232">
+      <c r="A2232" s="0" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="B2232" s="0" t="inlineStr">
+        <is>
+          <t>4815</t>
+        </is>
+      </c>
+      <c r="C2232" s="0" t="inlineStr">
+        <is>
+          <t>264759.1897</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2233">
+      <c r="A2233" s="0" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="B2233" s="0" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="C2233" s="0" t="inlineStr">
+        <is>
+          <t>240959.1776</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2234">
+      <c r="A2234" s="0" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="B2234" s="0" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C2234" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2235">
+      <c r="A2235" s="0" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B2235" s="0" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="C2235" s="0" t="inlineStr">
+        <is>
+          <t>174683.2900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2236">
+      <c r="A2236" s="0" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="B2236" s="0" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="C2236" s="0" t="inlineStr">
+        <is>
+          <t>399027.8177</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2237">
+      <c r="A2237" s="0" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B2237" s="0" t="inlineStr">
+        <is>
+          <t>3690</t>
+        </is>
+      </c>
+      <c r="C2237" s="0" t="inlineStr">
+        <is>
+          <t>712479.6564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2238">
+      <c r="A2238" s="0" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="B2238" s="0" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="C2238" s="0" t="inlineStr">
+        <is>
+          <t>16977.9680</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2239">
+      <c r="A2239" s="0" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B2239" s="0" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="C2239" s="0" t="inlineStr">
+        <is>
+          <t>130830.2240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2240">
+      <c r="A2240" s="0" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="B2240" s="0" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="C2240" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2241">
+      <c r="A2241" s="0" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B2241" s="0" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="C2241" s="0" t="inlineStr">
+        <is>
+          <t>403152.0325</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2242">
+      <c r="A2242" s="0" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="B2242" s="0" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="C2242" s="0" t="inlineStr">
+        <is>
+          <t>747684.9884</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2243">
+      <c r="A2243" s="0" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B2243" s="0" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C2243" s="0" t="inlineStr">
+        <is>
+          <t>1882456.2816</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2244">
+      <c r="A2244" s="0" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="B2244" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="C2244" s="0" t="inlineStr">
+        <is>
+          <t>1407405.1564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2245">
+      <c r="A2245" s="0" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B2245" s="0" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="C2245" s="0" t="inlineStr">
+        <is>
+          <t>1607788.2764</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2246">
+      <c r="A2246" s="0" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B2246" s="0" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="C2246" s="0" t="inlineStr">
+        <is>
+          <t>1482548.8264</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2247">
+      <c r="A2247" s="0" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="B2247" s="0" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="C2247" s="0" t="inlineStr">
+        <is>
+          <t>2006264.4236</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2248">
+      <c r="A2248" s="0" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="B2248" s="0" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="C2248" s="0" t="inlineStr">
+        <is>
+          <t>610956.1296</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2249">
+      <c r="A2249" s="0" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="B2249" s="0" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C2249" s="0" t="inlineStr">
+        <is>
+          <t>367413.4800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2250">
+      <c r="A2250" s="0" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="B2250" s="0" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="C2250" s="0" t="inlineStr">
+        <is>
+          <t>363214.4688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2251">
+      <c r="A2251" s="0" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="B2251" s="0" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="C2251" s="0" t="inlineStr">
+        <is>
+          <t>163761.4368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2252">
+      <c r="A2252" s="0" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="B2252" s="0" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="C2252" s="0" t="inlineStr">
+        <is>
+          <t>745324.4880</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2253">
+      <c r="A2253" s="0" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B2253" s="0" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="C2253" s="0" t="inlineStr">
+        <is>
+          <t>353545.7093</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2254">
+      <c r="A2254" s="0" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="B2254" s="0" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="C2254" s="0" t="inlineStr">
+        <is>
+          <t>1221456.5598</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2255">
+      <c r="A2255" s="0" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B2255" s="0" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="C2255" s="0" t="inlineStr">
+        <is>
+          <t>1046425.8585</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2256">
+      <c r="A2256" s="0" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B2256" s="0" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="C2256" s="0" t="inlineStr">
+        <is>
+          <t>1237544.7671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2257">
+      <c r="A2257" s="0" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="B2257" s="0" t="inlineStr">
+        <is>
+          <t>3772</t>
+        </is>
+      </c>
+      <c r="C2257" s="0" t="inlineStr">
+        <is>
+          <t>1046463.8895</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2258">
+      <c r="A2258" s="0" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B2258" s="0" t="inlineStr">
+        <is>
+          <t>2224</t>
+        </is>
+      </c>
+      <c r="C2258" s="0" t="inlineStr">
+        <is>
+          <t>619139.2706</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2259">
+      <c r="A2259" s="0" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="B2259" s="0" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="C2259" s="0" t="inlineStr">
+        <is>
+          <t>1033853.2764</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2260">
+      <c r="A2260" s="0" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="B2260" s="0" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="C2260" s="0" t="inlineStr">
+        <is>
+          <t>615172.8669</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2261">
+      <c r="A2261" s="0" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="B2261" s="0" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="C2261" s="0" t="inlineStr">
+        <is>
+          <t>364891.2341</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2262">
+      <c r="A2262" s="0" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="B2262" s="0" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="C2262" s="0" t="inlineStr">
+        <is>
+          <t>601936.9804</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2263">
+      <c r="A2263" s="0" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="B2263" s="0" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="C2263" s="0" t="inlineStr">
+        <is>
+          <t>363348.7438</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2264">
+      <c r="A2264" s="0" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="B2264" s="0" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="C2264" s="0" t="inlineStr">
+        <is>
+          <t>1251684.4478</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2265">
+      <c r="A2265" s="0" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B2265" s="0" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="C2265" s="0" t="inlineStr">
+        <is>
+          <t>1626827.2152</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2266">
+      <c r="A2266" s="0" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B2266" s="0" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="C2266" s="0" t="inlineStr">
+        <is>
+          <t>1491643.6128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2267">
+      <c r="A2267" s="0" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B2267" s="0" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="C2267" s="0" t="inlineStr">
+        <is>
+          <t>1517891.5356</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2268">
+      <c r="A2268" s="0" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B2268" s="0" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="C2268" s="0" t="inlineStr">
+        <is>
+          <t>1270508.2632</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2269">
+      <c r="A2269" s="0" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B2269" s="0" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="C2269" s="0" t="inlineStr">
+        <is>
+          <t>1703559.9524</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2270">
+      <c r="A2270" s="0" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B2270" s="0" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="C2270" s="0" t="inlineStr">
+        <is>
+          <t>1583140.3092</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2271">
+      <c r="A2271" s="0" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B2271" s="0" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="C2271" s="0" t="inlineStr">
+        <is>
+          <t>1704234.9504</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2272">
+      <c r="A2272" s="0" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B2272" s="0" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="C2272" s="0" t="inlineStr">
+        <is>
+          <t>1550740.4052</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2273">
+      <c r="A2273" s="0" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="B2273" s="0" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+      <c r="C2273" s="0" t="inlineStr">
+        <is>
+          <t>2135265.7197</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2274">
+      <c r="A2274" s="0" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="B2274" s="0" t="inlineStr">
+        <is>
+          <t>2587</t>
+        </is>
+      </c>
+      <c r="C2274" s="0" t="inlineStr">
+        <is>
+          <t>2084530.8528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2275">
+      <c r="A2275" s="0" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B2275" s="0" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="C2275" s="0" t="inlineStr">
+        <is>
+          <t>2058033.2529</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2276">
+      <c r="A2276" s="0" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="B2276" s="0" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="C2276" s="0" t="inlineStr">
+        <is>
+          <t>2559917.0690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2277">
+      <c r="A2277" s="0" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="B2277" s="0" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="C2277" s="0" t="inlineStr">
+        <is>
+          <t>2373331.1044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2278">
+      <c r="A2278" s="0" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B2278" s="0" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="C2278" s="0" t="inlineStr">
+        <is>
+          <t>1856492.8040</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2279">
+      <c r="A2279" s="0" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B2279" s="0" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="C2279" s="0" t="inlineStr">
+        <is>
+          <t>531873.4752</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2280">
+      <c r="A2280" s="0" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="B2280" s="0" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="C2280" s="0" t="inlineStr">
+        <is>
+          <t>603412.0128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2281">
+      <c r="A2281" s="0" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="B2281" s="0" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="C2281" s="0" t="inlineStr">
+        <is>
+          <t>580861.8216</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2282">
+      <c r="A2282" s="0" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="B2282" s="0" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="C2282" s="0" t="inlineStr">
+        <is>
+          <t>575418.6720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2283">
+      <c r="A2283" s="0" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="B2283" s="0" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="C2283" s="0" t="inlineStr">
+        <is>
+          <t>1673010.6120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2284">
+      <c r="A2284" s="0" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="B2284" s="0" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="C2284" s="0" t="inlineStr">
+        <is>
+          <t>1534032.8640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2285">
+      <c r="A2285" s="0" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="B2285" s="0" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="C2285" s="0" t="inlineStr">
+        <is>
+          <t>1215126.8220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2286">
+      <c r="A2286" s="0" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B2286" s="0" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="C2286" s="0" t="inlineStr">
+        <is>
+          <t>1074955.3230</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2287">
+      <c r="A2287" s="0" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="B2287" s="0" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="C2287" s="0" t="inlineStr">
+        <is>
+          <t>1765554.2385</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2288">
+      <c r="A2288" s="0" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="B2288" s="0" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="C2288" s="0" t="inlineStr">
+        <is>
+          <t>1606973.8425</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2289">
+      <c r="A2289" s="0" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="B2289" s="0" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+      <c r="C2289" s="0" t="inlineStr">
+        <is>
+          <t>1400961.0420</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2290">
+      <c r="A2290" s="0" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="B2290" s="0" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="C2290" s="0" t="inlineStr">
+        <is>
+          <t>995211.3600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2291">
+      <c r="A2291" s="0" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="B2291" s="0" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C2291" s="0" t="inlineStr">
+        <is>
+          <t>754826.0920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2292">
+      <c r="A2292" s="0" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="B2292" s="0" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="C2292" s="0" t="inlineStr">
+        <is>
+          <t>660776.9635</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2293">
+      <c r="A2293" s="0" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="B2293" s="0" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="C2293" s="0" t="inlineStr">
+        <is>
+          <t>535522.1885</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2294">
+      <c r="A2294" s="0" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="B2294" s="0" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="C2294" s="0" t="inlineStr">
+        <is>
+          <t>392096.2671</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2295">
+      <c r="A2295" s="0" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="B2295" s="0" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C2295" s="0" t="inlineStr">
+        <is>
+          <t>753628.7684</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2296">
+      <c r="A2296" s="0" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="B2296" s="0" t="inlineStr">
+        <is>
+          <t>27213</t>
+        </is>
+      </c>
+      <c r="C2296" s="0" t="inlineStr">
+        <is>
+          <t>20839.7320</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2297">
+      <c r="A2297" s="0" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="B2297" s="0" t="inlineStr">
+        <is>
+          <t>15473</t>
+        </is>
+      </c>
+      <c r="C2297" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2298">
+      <c r="A2298" s="0" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="B2298" s="0" t="inlineStr">
+        <is>
+          <t>29105</t>
+        </is>
+      </c>
+      <c r="C2298" s="0" t="inlineStr">
+        <is>
+          <t>75401.2344</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2299">
+      <c r="A2299" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="B2299" s="0" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="C2299" s="0" t="inlineStr">
+        <is>
+          <t>2404.2600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2300">
+      <c r="A2300" s="0" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="B2300" s="0" t="inlineStr">
+        <is>
+          <t>43893</t>
+        </is>
+      </c>
+      <c r="C2300" s="0" t="inlineStr">
+        <is>
+          <t>49882.7414</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2301">
+      <c r="A2301" s="0" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="B2301" s="0" t="inlineStr">
+        <is>
+          <t>9129</t>
+        </is>
+      </c>
+      <c r="C2301" s="0" t="inlineStr">
+        <is>
+          <t>23536.5510</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2302">
+      <c r="A2302" s="0" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="B2302" s="0" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="C2302" s="0" t="inlineStr">
+        <is>
+          <t>16473.8188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2303">
+      <c r="A2303" s="0" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="B2303" s="0" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="C2303" s="0" t="inlineStr">
+        <is>
+          <t>38926.8732</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2304">
+      <c r="A2304" s="0" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="B2304" s="0" t="inlineStr">
+        <is>
+          <t>13753</t>
+        </is>
+      </c>
+      <c r="C2304" s="0" t="inlineStr">
+        <is>
+          <t>27800.2988</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2305">
+      <c r="A2305" s="0" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="B2305" s="0" t="inlineStr">
+        <is>
+          <t>18705</t>
+        </is>
+      </c>
+      <c r="C2305" s="0" t="inlineStr">
+        <is>
+          <t>5588.1535</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2306">
+      <c r="A2306" s="0" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="B2306" s="0" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="C2306" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2307">
+      <c r="A2307" s="0" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B2307" s="0" t="inlineStr">
+        <is>
+          <t>9748</t>
+        </is>
+      </c>
+      <c r="C2307" s="0" t="inlineStr">
+        <is>
+          <t>34386.2834</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2308">
+      <c r="A2308" s="0" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="B2308" s="0" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="C2308" s="0" t="inlineStr">
+        <is>
+          <t>132654.3536</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2309">
+      <c r="A2309" s="0" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="B2309" s="0" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="C2309" s="0" t="inlineStr">
+        <is>
+          <t>27734.9521</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2310">
+      <c r="A2310" s="0" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="B2310" s="0" t="inlineStr">
+        <is>
+          <t>11609</t>
+        </is>
+      </c>
+      <c r="C2310" s="0" t="inlineStr">
+        <is>
+          <t>41144.4810</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2311">
+      <c r="A2311" s="0" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="B2311" s="0" t="inlineStr">
+        <is>
+          <t>5395</t>
+        </is>
+      </c>
+      <c r="C2311" s="0" t="inlineStr">
+        <is>
+          <t>49319.3202</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2312">
+      <c r="A2312" s="0" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="B2312" s="0" t="inlineStr">
+        <is>
+          <t>18345</t>
+        </is>
+      </c>
+      <c r="C2312" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2313">
+      <c r="A2313" s="0" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="B2313" s="0" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="C2313" s="0" t="inlineStr">
+        <is>
+          <t>97784.2068</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2314">
+      <c r="A2314" s="0" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="B2314" s="0" t="inlineStr">
+        <is>
+          <t>10050</t>
+        </is>
+      </c>
+      <c r="C2314" s="0" t="inlineStr">
+        <is>
+          <t>138486.5748</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2315">
+      <c r="A2315" s="0" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B2315" s="0" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="C2315" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2316">
+      <c r="A2316" s="0" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="B2316" s="0" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="C2316" s="0" t="inlineStr">
+        <is>
+          <t>242936.1110</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2317">
+      <c r="A2317" s="0" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="B2317" s="0" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
+      <c r="C2317" s="0" t="inlineStr">
+        <is>
+          <t>22206.5046</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2318">
+      <c r="A2318" s="0" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="B2318" s="0" t="inlineStr">
+        <is>
+          <t>12771</t>
+        </is>
+      </c>
+      <c r="C2318" s="0" t="inlineStr">
+        <is>
+          <t>147935.7495</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2319">
+      <c r="A2319" s="0" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="B2319" s="0" t="inlineStr">
+        <is>
+          <t>6651</t>
+        </is>
+      </c>
+      <c r="C2319" s="0" t="inlineStr">
+        <is>
+          <t>205818.2350</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2320">
+      <c r="A2320" s="0" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B2320" s="0" t="inlineStr">
+        <is>
+          <t>20079</t>
+        </is>
+      </c>
+      <c r="C2320" s="0" t="inlineStr">
+        <is>
+          <t>72219.4527</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2321">
+      <c r="A2321" s="0" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="B2321" s="0" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="C2321" s="0" t="inlineStr">
+        <is>
+          <t>13042.2336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2322">
+      <c r="A2322" s="0" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="B2322" s="0" t="inlineStr">
+        <is>
+          <t>9104</t>
+        </is>
+      </c>
+      <c r="C2322" s="0" t="inlineStr">
+        <is>
+          <t>24837.0936</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2323">
+      <c r="A2323" s="0" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="B2323" s="0" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="C2323" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2324">
+      <c r="A2324" s="0" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="B2324" s="0" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="C2324" s="0" t="inlineStr">
+        <is>
+          <t>17549.6032</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2325">
+      <c r="A2325" s="0" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B2325" s="0" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C2325" s="0" t="inlineStr">
+        <is>
+          <t>159753.0056</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2326">
+      <c r="A2326" s="0" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="B2326" s="0" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
+      </c>
+      <c r="C2326" s="0" t="inlineStr">
+        <is>
+          <t>247242.9392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2327">
+      <c r="A2327" s="0" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="B2327" s="0" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="C2327" s="0" t="inlineStr">
+        <is>
+          <t>70868.0378</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2328">
+      <c r="A2328" s="0" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="B2328" s="0" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="C2328" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2329">
+      <c r="A2329" s="0" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="B2329" s="0" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="C2329" s="0" t="inlineStr">
+        <is>
+          <t>405560.4514</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2330">
+      <c r="A2330" s="0" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="B2330" s="0" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="C2330" s="0" t="inlineStr">
+        <is>
+          <t>239974.9393</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2331">
+      <c r="A2331" s="0" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="B2331" s="0" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
+      </c>
+      <c r="C2331" s="0" t="inlineStr">
+        <is>
+          <t>324630.3668</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2332">
+      <c r="A2332" s="0" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="B2332" s="0" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="C2332" s="0" t="inlineStr">
+        <is>
+          <t>87537.5268</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2333">
+      <c r="A2333" s="0" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="B2333" s="0" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="C2333" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2334">
+      <c r="A2334" s="0" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B2334" s="0" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C2334" s="0" t="inlineStr">
+        <is>
+          <t>22109.3145</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2335">
+      <c r="A2335" s="0" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B2335" s="0" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="C2335" s="0" t="inlineStr">
+        <is>
+          <t>16290.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2336">
+      <c r="A2336" s="0" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B2336" s="0" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="C2336" s="0" t="inlineStr">
+        <is>
+          <t>13553.2200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2337">
+      <c r="A2337" s="0" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="B2337" s="0" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="C2337" s="0" t="inlineStr">
+        <is>
+          <t>49677.7190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2338">
+      <c r="A2338" s="0" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="B2338" s="0" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="C2338" s="0" t="inlineStr">
+        <is>
+          <t>17352.1075</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2339">
+      <c r="A2339" s="0" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="B2339" s="0" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="C2339" s="0" t="inlineStr">
+        <is>
+          <t>100460.3535</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2340">
+      <c r="A2340" s="0" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="B2340" s="0" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="C2340" s="0" t="inlineStr">
+        <is>
+          <t>19204.9390</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2341">
+      <c r="A2341" s="0" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="B2341" s="0" t="inlineStr">
+        <is>
+          <t>2116</t>
+        </is>
+      </c>
+      <c r="C2341" s="0" t="inlineStr">
+        <is>
+          <t>103141.2460</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2342">
+      <c r="A2342" s="0" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="B2342" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="C2342" s="0" t="inlineStr">
+        <is>
+          <t>51123.3190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2343">
+      <c r="A2343" s="0" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="B2343" s="0" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="C2343" s="0" t="inlineStr">
+        <is>
+          <t>94057.5480</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2344">
+      <c r="A2344" s="0" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="B2344" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="C2344" s="0" t="inlineStr">
+        <is>
+          <t>37026.3855</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2345">
+      <c r="A2345" s="0" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="B2345" s="0" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="C2345" s="0" t="inlineStr">
+        <is>
+          <t>14330.3495</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2346">
+      <c r="A2346" s="0" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="B2346" s="0" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="C2346" s="0" t="inlineStr">
+        <is>
+          <t>24605.7682</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2347">
+      <c r="A2347" s="0" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="B2347" s="0" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="C2347" s="0" t="inlineStr">
+        <is>
+          <t>7776.8144</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2348">
+      <c r="A2348" s="0" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="B2348" s="0" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="C2348" s="0" t="inlineStr">
+        <is>
+          <t>12173.8955</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2349">
+      <c r="A2349" s="0" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="B2349" s="0" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="C2349" s="0" t="inlineStr">
+        <is>
+          <t>54251.6195</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2350">
+      <c r="A2350" s="0" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="B2350" s="0" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="C2350" s="0" t="inlineStr">
+        <is>
+          <t>83093.6275</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2351">
+      <c r="A2351" s="0" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="B2351" s="0" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="C2351" s="0" t="inlineStr">
+        <is>
+          <t>35252.0250</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2352">
+      <c r="A2352" s="0" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="B2352" s="0" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="C2352" s="0" t="inlineStr">
+        <is>
+          <t>22710.7750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2353">
+      <c r="A2353" s="0" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="B2353" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C2353" s="0" t="inlineStr">
+        <is>
+          <t>1009.6500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2354">
+      <c r="A2354" s="0" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="B2354" s="0" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="C2354" s="0" t="inlineStr">
+        <is>
+          <t>29413.2975</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2355">
+      <c r="A2355" s="0" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="B2355" s="0" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="C2355" s="0" t="inlineStr">
+        <is>
+          <t>8209.8270</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2356">
+      <c r="A2356" s="0" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="B2356" s="0" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="C2356" s="0" t="inlineStr">
+        <is>
+          <t>27740.5365</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2357">
+      <c r="A2357" s="0" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="B2357" s="0" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="C2357" s="0" t="inlineStr">
+        <is>
+          <t>3809.3660</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2358">
+      <c r="A2358" s="0" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B2358" s="0" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C2358" s="0" t="inlineStr">
+        <is>
+          <t>1928.0700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2359">
+      <c r="A2359" s="0" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B2359" s="0" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="C2359" s="0" t="inlineStr">
+        <is>
+          <t>1609.2100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2360">
+      <c r="A2360" s="0" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B2360" s="0" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="C2360" s="0" t="inlineStr">
+        <is>
+          <t>952.6400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2361">
+      <c r="A2361" s="0" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B2361" s="0" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="C2361" s="0" t="inlineStr">
+        <is>
+          <t>1922.5115</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2362">
+      <c r="A2362" s="0" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="B2362" s="0" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="C2362" s="0" t="inlineStr">
+        <is>
+          <t>3143.8030</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2363">
+      <c r="A2363" s="0" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="B2363" s="0" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="C2363" s="0" t="inlineStr">
+        <is>
+          <t>46128.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2364">
+      <c r="A2364" s="0" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="B2364" s="0" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="C2364" s="0" t="inlineStr">
+        <is>
+          <t>3381.9300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2365">
+      <c r="A2365" s="0" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="B2365" s="0" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="C2365" s="0" t="inlineStr">
+        <is>
+          <t>4461.9400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2366">
+      <c r="A2366" s="0" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="B2366" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C2366" s="0" t="inlineStr">
+        <is>
+          <t>3975.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2367">
+      <c r="A2367" s="0" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B2367" s="0" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="C2367" s="0" t="inlineStr">
+        <is>
+          <t>19851.3900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2368">
+      <c r="A2368" s="0" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="B2368" s="0" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="C2368" s="0" t="inlineStr">
+        <is>
+          <t>16207.7980</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2369">
+      <c r="A2369" s="0" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="B2369" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C2369" s="0" t="inlineStr">
+        <is>
+          <t>2267.5800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2370">
+      <c r="A2370" s="0" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="B2370" s="0" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="C2370" s="0" t="inlineStr">
+        <is>
+          <t>21234.2670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2371">
+      <c r="A2371" s="0" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B2371" s="0" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="C2371" s="0" t="inlineStr">
+        <is>
+          <t>28703.7835</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2372">
+      <c r="A2372" s="0" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B2372" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="C2372" s="0" t="inlineStr">
+        <is>
+          <t>58688.5786</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2373">
+      <c r="A2373" s="0" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="B2373" s="0" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="C2373" s="0" t="inlineStr">
+        <is>
+          <t>19985.1948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2374">
+      <c r="A2374" s="0" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="B2374" s="0" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C2374" s="0" t="inlineStr">
+        <is>
+          <t>26001.2690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2375">
+      <c r="A2375" s="0" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="B2375" s="0" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C2375" s="0" t="inlineStr">
+        <is>
+          <t>21543.9086</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2376">
+      <c r="A2376" s="0" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="B2376" s="0" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C2376" s="0" t="inlineStr">
+        <is>
+          <t>86175.6344</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2377">
+      <c r="A2377" s="0" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="B2377" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="C2377" s="0" t="inlineStr">
+        <is>
+          <t>25258.3756</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2378">
+      <c r="A2378" s="0" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="B2378" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C2378" s="0" t="inlineStr">
+        <is>
+          <t>22286.8020</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2379">
+      <c r="A2379" s="0" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B2379" s="0" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="C2379" s="0" t="inlineStr">
+        <is>
+          <t>88404.3146</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2380">
+      <c r="A2380" s="0" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B2380" s="0" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="C2380" s="0" t="inlineStr">
+        <is>
+          <t>59431.4720</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2381">
+      <c r="A2381" s="0" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B2381" s="0" t="inlineStr">
+        <is>
+          <t>53745</t>
+        </is>
+      </c>
+      <c r="C2381" s="0" t="inlineStr">
+        <is>
+          <t>5392.8240</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2382">
+      <c r="A2382" s="0" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B2382" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C2382" s="0" t="inlineStr">
+        <is>
+          <t>20231.9256</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2383">
+      <c r="A2383" s="0" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B2383" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C2383" s="0" t="inlineStr">
+        <is>
+          <t>10856.1552</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2384">
+      <c r="A2384" s="0" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B2384" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C2384" s="0" t="inlineStr">
+        <is>
+          <t>986.9232</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2385">
+      <c r="A2385" s="0" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B2385" s="0" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C2385" s="0" t="inlineStr">
+        <is>
+          <t>2467.3080</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2386">
+      <c r="A2386" s="0" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B2386" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C2386" s="0" t="inlineStr">
+        <is>
+          <t>21465.5796</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2387">
+      <c r="A2387" s="0" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="B2387" s="0" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C2387" s="0" t="inlineStr">
+        <is>
+          <t>10856.1552</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2388">
+      <c r="A2388" s="0" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="B2388" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C2388" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2389">
+      <c r="A2389" s="0" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="B2389" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C2389" s="0" t="inlineStr">
+        <is>
+          <t>6415.0008</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2390">
+      <c r="A2390" s="0" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="B2390" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C2390" s="0" t="inlineStr">
+        <is>
+          <t>3700.9620</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2391">
+      <c r="A2391" s="0" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="B2391" s="0" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="C2391" s="0" t="inlineStr">
+        <is>
+          <t>56849.0126</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2392">
+      <c r="A2392" s="0" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="B2392" s="0" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="C2392" s="0" t="inlineStr">
+        <is>
+          <t>37180.8708</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2393">
+      <c r="A2393" s="0" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="B2393" s="0" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C2393" s="0" t="inlineStr">
+        <is>
+          <t>23709.5408</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2394">
+      <c r="A2394" s="0" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="B2394" s="0" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="C2394" s="0" t="inlineStr">
+        <is>
+          <t>232444.6650</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2395">
+      <c r="A2395" s="0" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="B2395" s="0" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="C2395" s="0" t="inlineStr">
+        <is>
+          <t>94682.1984</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2396">
+      <c r="A2396" s="0" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="B2396" s="0" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="C2396" s="0" t="inlineStr">
+        <is>
+          <t>137670.1044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2397">
+      <c r="A2397" s="0" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="B2397" s="0" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+      <c r="C2397" s="0" t="inlineStr">
+        <is>
+          <t>184730.3248</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2398">
+      <c r="A2398" s="0" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B2398" s="0" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="C2398" s="0" t="inlineStr">
+        <is>
+          <t>92835.8688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2399">
+      <c r="A2399" s="0" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="B2399" s="0" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="C2399" s="0" t="inlineStr">
+        <is>
+          <t>133933.8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2400">
+      <c r="A2400" s="0" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="B2400" s="0" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="C2400" s="0" t="inlineStr">
+        <is>
+          <t>138216.6380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2401">
+      <c r="A2401" s="0" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="B2401" s="0" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="C2401" s="0" t="inlineStr">
+        <is>
+          <t>47290.9272</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2402">
+      <c r="A2402" s="0" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="B2402" s="0" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C2402" s="0" t="inlineStr">
+        <is>
+          <t>67864.7716</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2403">
+      <c r="A2403" s="0" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="B2403" s="0" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="C2403" s="0" t="inlineStr">
+        <is>
+          <t>93884.3528</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2404">
+      <c r="A2404" s="0" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="B2404" s="0" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="C2404" s="0" t="inlineStr">
+        <is>
+          <t>27941.7710</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2405">
+      <c r="A2405" s="0" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="B2405" s="0" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="C2405" s="0" t="inlineStr">
+        <is>
+          <t>14263.9810</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2406">
+      <c r="A2406" s="0" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="B2406" s="0" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C2406" s="0" t="inlineStr">
+        <is>
+          <t>4298.7340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2407">
+      <c r="A2407" s="0" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="B2407" s="0" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="C2407" s="0" t="inlineStr">
+        <is>
+          <t>20907.4790</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2408">
+      <c r="A2408" s="0" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="B2408" s="0" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="C2408" s="0" t="inlineStr">
+        <is>
+          <t>16763.6900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2409">
+      <c r="A2409" s="0" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="B2409" s="0" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="C2409" s="0" t="inlineStr">
+        <is>
+          <t>11681.8800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2410">
+      <c r="A2410" s="0" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="B2410" s="0" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="C2410" s="0" t="inlineStr">
+        <is>
+          <t>7331.8900</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2411">
+      <c r="A2411" s="0" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="B2411" s="0" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="C2411" s="0" t="inlineStr">
+        <is>
+          <t>18854.1492</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2412">
+      <c r="A2412" s="0" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="B2412" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="C2412" s="0" t="inlineStr">
+        <is>
+          <t>26802.4670</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2413">
+      <c r="A2413" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="B2413" s="0" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C2413" s="0" t="inlineStr">
+        <is>
+          <t>15342.1018</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2414">
+      <c r="A2414" s="0" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="B2414" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C2414" s="0" t="inlineStr">
+        <is>
+          <t>2772.6690</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2415">
+      <c r="A2415" s="0" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="B2415" s="0" t="inlineStr">
+        <is>
+          <t>5027</t>
+        </is>
+      </c>
+      <c r="C2415" s="0" t="inlineStr">
+        <is>
+          <t>162694.4550</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2416">
+      <c r="A2416" s="0" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="B2416" s="0" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+      <c r="C2416" s="0" t="inlineStr">
+        <is>
+          <t>184921.0200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2417">
+      <c r="A2417" s="0" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="B2417" s="0" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="C2417" s="0" t="inlineStr">
+        <is>
+          <t>216291.7750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2418">
+      <c r="A2418" s="0" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B2418" s="0" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="C2418" s="0" t="inlineStr">
+        <is>
+          <t>154113.9600</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2419">
+      <c r="A2419" s="0" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="B2419" s="0" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="C2419" s="0" t="inlineStr">
+        <is>
+          <t>175714.7700</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2420">
+      <c r="A2420" s="0" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="B2420" s="0" t="inlineStr">
+        <is>
+          <t>3409</t>
+        </is>
+      </c>
+      <c r="C2420" s="0" t="inlineStr">
+        <is>
+          <t>147836.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2421">
+      <c r="A2421" s="0" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="B2421" s="0" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="C2421" s="0" t="inlineStr">
+        <is>
+          <t>127191.4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2422">
+      <c r="A2422" s="0" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="B2422" s="0" t="inlineStr">
+        <is>
+          <t>5627</t>
+        </is>
+      </c>
+      <c r="C2422" s="0" t="inlineStr">
+        <is>
+          <t>176997.5002</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2423">
+      <c r="A2423" s="0" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="B2423" s="0" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+      <c r="C2423" s="0" t="inlineStr">
+        <is>
+          <t>269084.1916</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2424">
+      <c r="A2424" s="0" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="B2424" s="0" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="C2424" s="0" t="inlineStr">
+        <is>
+          <t>182450.7454</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2425">
+      <c r="A2425" s="0" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="B2425" s="0" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="C2425" s="0" t="inlineStr">
+        <is>
+          <t>162165.1710</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2426">
+      <c r="A2426" s="0" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="B2426" s="0" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="C2426" s="0" t="inlineStr">
+        <is>
+          <t>245879.0684</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2427">
+      <c r="A2427" s="0" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="B2427" s="0" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="C2427" s="0" t="inlineStr">
+        <is>
+          <t>148345.9138</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2428">
+      <c r="A2428" s="0" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="B2428" s="0" t="inlineStr">
+        <is>
+          <t>3352</t>
+        </is>
+      </c>
+      <c r="C2428" s="0" t="inlineStr">
+        <is>
+          <t>210981.8452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2429">
+      <c r="A2429" s="0" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="B2429" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C2429" s="0" t="inlineStr">
+        <is>
+          <t>1885.9862</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2430">
+      <c r="A2430" s="0" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="B2430" s="0" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C2430" s="0" t="inlineStr">
+        <is>
+          <t>1478.7568</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2431">
+      <c r="A2431" s="0" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="B2431" s="0" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="C2431" s="0" t="inlineStr">
+        <is>
+          <t>20712.0820</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2432">
+      <c r="A2432" s="0" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="B2432" s="0" t="inlineStr">
+        <is>
+          <t>53919</t>
+        </is>
+      </c>
+      <c r="C2432" s="0" t="inlineStr">
+        <is>
+          <t>9952.2822</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2433">
+      <c r="A2433" s="0" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="B2433" s="0" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="C2433" s="0" t="inlineStr">
+        <is>
+          <t>989.0914</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2434">
+      <c r="A2434" s="0" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="B2434" s="0" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="C2434" s="0" t="inlineStr">
+        <is>
+          <t>3997.9462</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2435">
+      <c r="A2435" s="0" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="B2435" s="0" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="C2435" s="0" t="inlineStr">
+        <is>
+          <t>239931.6150</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2436">
+      <c r="A2436" s="0" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="B2436" s="0" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="C2436" s="0" t="inlineStr">
+        <is>
+          <t>9220.2446</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2437">
+      <c r="A2437" s="0" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="B2437" s="0" t="inlineStr">
+        <is>
+          <t>42657</t>
+        </is>
+      </c>
+      <c r="C2437" s="0" t="inlineStr">
+        <is>
+          <t>7781.9066</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2438">
+      <c r="A2438" s="0" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="B2438" s="0" t="inlineStr">
+        <is>
+          <t>8869</t>
+        </is>
+      </c>
+      <c r="C2438" s="0" t="inlineStr">
+        <is>
+          <t>37461.5750</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2439">
+      <c r="A2439" s="0" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="B2439" s="0" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="C2439" s="0" t="inlineStr">
+        <is>
+          <t>6683.9156</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2440">
+      <c r="A2440" s="0" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="B2440" s="0" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C2440" s="0" t="inlineStr">
+        <is>
+          <t>105740.5440</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2441">
+      <c r="A2441" s="0" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="B2441" s="0" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C2441" s="0" t="inlineStr">
+        <is>
+          <t>282655.3392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2442">
+      <c r="A2442" s="0" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="B2442" s="0" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="C2442" s="0" t="inlineStr">
+        <is>
+          <t>162212.1228</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2443">
+      <c r="A2443" s="0" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="B2443" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C2443" s="0" t="inlineStr">
+        <is>
+          <t>78483.5844</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2444">
+      <c r="A2444" s="0" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="B2444" s="0" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="C2444" s="0" t="inlineStr">
+        <is>
+          <t>360948.1980</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2445">
+      <c r="A2445" s="0" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="B2445" s="0" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C2445" s="0" t="inlineStr">
+        <is>
+          <t>61318.1100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2446">
+      <c r="A2446" s="0" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="B2446" s="0" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="C2446" s="0" t="inlineStr">
+        <is>
+          <t>38988.2220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2447">
+      <c r="A2447" s="0" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="B2447" s="0" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C2447" s="0" t="inlineStr">
+        <is>
+          <t>10363.2060</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2448">
+      <c r="A2448" s="0" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="B2448" s="0" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="C2448" s="0" t="inlineStr">
+        <is>
+          <t>79075.1220</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2449">
+      <c r="A2449" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="B2449" s="0" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="C2449" s="0" t="inlineStr">
+        <is>
+          <t>56745.2340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2450">
+      <c r="A2450" s="0" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="B2450" s="0" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="C2450" s="0" t="inlineStr">
+        <is>
+          <t>36434.5380</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2451">
+      <c r="A2451" s="0" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="B2451" s="0" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="C2451" s="0" t="inlineStr">
+        <is>
+          <t>30317.5740</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2452">
+      <c r="A2452" s="0" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="B2452" s="0" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="C2452" s="0" t="inlineStr">
+        <is>
+          <t>83677.6920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2453">
+      <c r="A2453" s="0" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="B2453" s="0" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="C2453" s="0" t="inlineStr">
+        <is>
+          <t>284085.7812</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2454">
+      <c r="A2454" s="0" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="B2454" s="0" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="C2454" s="0" t="inlineStr">
+        <is>
+          <t>172892.7564</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2455">
+      <c r="A2455" s="0" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="B2455" s="0" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C2455" s="0" t="inlineStr">
+        <is>
+          <t>121206.1188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2456">
+      <c r="A2456" s="0" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="B2456" s="0" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="C2456" s="0" t="inlineStr">
+        <is>
+          <t>347597.4060</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2457">
+      <c r="A2457" s="0" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="B2457" s="0" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="C2457" s="0" t="inlineStr">
+        <is>
+          <t>83338.7100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2458">
+      <c r="A2458" s="0" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="B2458" s="0" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C2458" s="0" t="inlineStr">
+        <is>
+          <t>32072.0400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2459">
+      <c r="A2459" s="0" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="B2459" s="0" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="C2459" s="0" t="inlineStr">
+        <is>
+          <t>167843.6760</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2460">
+      <c r="A2460" s="0" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="B2460" s="0" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="C2460" s="0" t="inlineStr">
+        <is>
+          <t>343123.7028</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2461">
+      <c r="A2461" s="0" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B2461" s="0" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="C2461" s="0" t="inlineStr">
+        <is>
+          <t>192824.2264</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2462">
+      <c r="A2462" s="0" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="B2462" s="0" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C2462" s="0" t="inlineStr">
+        <is>
+          <t>110768.4688</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2463">
+      <c r="A2463" s="0" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="B2463" s="0" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="C2463" s="0" t="inlineStr">
+        <is>
+          <t>355438.8704</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2464">
+      <c r="A2464" s="0" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="B2464" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C2464" s="0" t="inlineStr">
+        <is>
+          <t>65079.5948</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2465">
+      <c r="A2465" s="0" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="B2465" s="0" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C2465" s="0" t="inlineStr">
+        <is>
+          <t>25833.7800</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2466">
+      <c r="A2466" s="0" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="B2466" s="0" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C2466" s="0" t="inlineStr">
+        <is>
+          <t>75630.6180</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2467">
+      <c r="A2467" s="0" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="B2467" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C2467" s="0" t="inlineStr">
+        <is>
+          <t>31302.8532</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2468">
+      <c r="A2468" s="0" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="B2468" s="0" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C2468" s="0" t="inlineStr">
+        <is>
+          <t>65068.0744</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2469">
+      <c r="A2469" s="0" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="B2469" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C2469" s="0" t="inlineStr">
+        <is>
+          <t>26655.1336</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2470">
+      <c r="A2470" s="0" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="B2470" s="0" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="C2470" s="0" t="inlineStr">
+        <is>
+          <t>35919.7932</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2471">
+      <c r="A2471" s="0" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="B2471" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C2471" s="0" t="inlineStr">
+        <is>
+          <t>39594.4992</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2472">
+      <c r="A2472" s="0" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="B2472" s="0" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C2472" s="0" t="inlineStr">
+        <is>
+          <t>35210.1768</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2473">
+      <c r="A2473" s="0" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="B2473" s="0" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="C2473" s="0" t="inlineStr">
+        <is>
+          <t>28701.4920</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2474">
+      <c r="A2474" s="0" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="B2474" s="0" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="C2474" s="0" t="inlineStr">
+        <is>
+          <t>32520.8244</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2475">
+      <c r="A2475" s="0" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="B2475" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="C2475" s="0" t="inlineStr">
+        <is>
+          <t>38871.3120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2476">
+      <c r="A2476" s="0" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="B2476" s="0" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C2476" s="0" t="inlineStr">
+        <is>
+          <t>17625.2736</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2477">
+      <c r="A2477" s="0" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="B2477" s="0" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C2477" s="0" t="inlineStr">
+        <is>
+          <t>30455.4360</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2478">
+      <c r="A2478" s="0" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="B2478" s="0" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="C2478" s="0" t="inlineStr">
+        <is>
+          <t>32161.8044</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2479">
+      <c r="A2479" s="0" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="B2479" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C2479" s="0" t="inlineStr">
+        <is>
+          <t>37540.1048</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2480">
+      <c r="A2480" s="0" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="B2480" s="0" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C2480" s="0" t="inlineStr">
+        <is>
+          <t>17171.6820</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2481">
+      <c r="A2481" s="0" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="B2481" s="0" t="inlineStr">
+        <is>
+          <t>24437</t>
+        </is>
+      </c>
+      <c r="C2481" s="0" t="inlineStr">
+        <is>
+          <t>2596.9190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2482">
+      <c r="A2482" s="0" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="B2482" s="0" t="inlineStr">
+        <is>
+          <t>14435</t>
+        </is>
+      </c>
+      <c r="C2482" s="0" t="inlineStr">
+        <is>
+          <t>.0000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2483">
+      <c r="A2483" s="0" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="B2483" s="0" t="inlineStr">
+        <is>
+          <t>15063</t>
+        </is>
+      </c>
+      <c r="C2483" s="0" t="inlineStr">
+        <is>
+          <t>8091.2340</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2484">
+      <c r="A2484" s="0" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="B2484" s="0" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="C2484" s="0" t="inlineStr">
+        <is>
+          <t>39743.2640</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2485">
+      <c r="A2485" s="0" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="B2485" s="0" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="C2485" s="0" t="inlineStr">
+        <is>
+          <t>124370.4968</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2486">
+      <c r="A2486" s="0" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="B2486" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="C2486" s="0" t="inlineStr">
+        <is>
+          <t>96723.0088</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
